--- a/Documentation/Results/IODVS/EnergyAnalysis.xlsx
+++ b/Documentation/Results/IODVS/EnergyAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="28">
   <si>
     <t>Idle</t>
   </si>
@@ -539,13 +539,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
   </cols>
@@ -574,15 +574,15 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f>B23</f>
+        <f t="shared" ref="B3:B8" si="0">B23</f>
         <v>10.240399999999999</v>
       </c>
       <c r="C3">
-        <f>D23</f>
+        <f t="shared" ref="C3:C8" si="1">D23</f>
         <v>3.4906000000000001</v>
       </c>
       <c r="D3" s="1">
-        <f>(C3-B3)/(ABS(B3))</f>
+        <f t="shared" ref="D3:D8" si="2">(C3-B3)/(ABS(B3))</f>
         <v>-0.65913440881215568</v>
       </c>
     </row>
@@ -591,15 +591,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>13.7919</v>
       </c>
       <c r="C4">
-        <f>D24</f>
+        <f t="shared" si="1"/>
         <v>17.855799999999999</v>
       </c>
       <c r="D4" s="1">
-        <f>(C4-B4)/(ABS(B4))</f>
+        <f t="shared" si="2"/>
         <v>0.29465845895054332</v>
       </c>
       <c r="Q4" s="1"/>
@@ -609,15 +609,15 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>64.591300000000004</v>
       </c>
       <c r="C5">
-        <f>D25</f>
+        <f t="shared" si="1"/>
         <v>33.719000000000001</v>
       </c>
       <c r="D5" s="1">
-        <f>(C5-B5)/(ABS(B5))</f>
+        <f t="shared" si="2"/>
         <v>-0.47796375053606294</v>
       </c>
       <c r="Q5" s="1"/>
@@ -627,15 +627,15 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>17.584</v>
       </c>
       <c r="C6">
-        <f>D26</f>
+        <f t="shared" si="1"/>
         <v>17.404299999999999</v>
       </c>
       <c r="D6" s="1">
-        <f>(C6-B6)/(ABS(B6))</f>
+        <f t="shared" si="2"/>
         <v>-1.0219517743403118E-2</v>
       </c>
       <c r="Q6" s="1"/>
@@ -645,15 +645,15 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>8.8134999999999994</v>
       </c>
       <c r="C7">
-        <f>D27</f>
+        <f t="shared" si="1"/>
         <v>7.9698000000000002</v>
       </c>
       <c r="D7" s="1">
-        <f>(C7-B7)/(ABS(B7))</f>
+        <f t="shared" si="2"/>
         <v>-9.5728144324048248E-2</v>
       </c>
       <c r="Q7" s="1"/>
@@ -663,15 +663,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>115.0211</v>
       </c>
       <c r="C8" s="2">
-        <f>D28</f>
+        <f t="shared" si="1"/>
         <v>80.439599999999999</v>
       </c>
       <c r="D8" s="3">
-        <f>(C8-B8)/(ABS(B8))</f>
+        <f t="shared" si="2"/>
         <v>-0.30065353226494967</v>
       </c>
       <c r="Q8" s="1"/>
@@ -687,6 +687,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:17">
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="13" spans="1:17">
       <c r="B13">
         <v>7.4358000000000004</v>
@@ -714,6 +728,27 @@
       <c r="E14">
         <v>28.4208</v>
       </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>6.9557765452600497</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.3364278468437001</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>80.786791551629094</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15">
@@ -728,6 +763,27 @@
       <c r="E15">
         <v>5.8662999999999998</v>
       </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>9.4872409268176199</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>24.824069928613</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>-161.657420951993</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16">
@@ -742,8 +798,29 @@
       <c r="E16">
         <v>34.181399999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>44.566361801095603</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>8.0283284414456109</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16">
+        <v>81.985676826668296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="B17">
         <v>4.9633000000000003</v>
       </c>
@@ -756,8 +833,29 @@
       <c r="E17">
         <v>3.0547</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>11.521925472764099</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>28.130789472917002</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <v>-144.15007317495099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="B18">
         <v>84.035600000000002</v>
       </c>
@@ -770,8 +868,52 @@
       <c r="E18">
         <v>72.191699999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>4.6164599013504501</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>2.94171031261321</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <v>36.277789139841197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>77.1477646472879</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>65.261326002432497</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19">
+        <v>15.407366239578201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -779,7 +921,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="22" spans="1:17">
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="B23">
         <v>10.240399999999999</v>
       </c>
@@ -793,7 +949,7 @@
         <v>1.7076</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:17">
       <c r="B24">
         <v>13.7919</v>
       </c>
@@ -806,8 +962,26 @@
       <c r="E24">
         <v>17.6371</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="K24">
+        <v>9.8417995214909908</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3.27742253921752</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>66.698950409822999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="B25">
         <v>64.591300000000004</v>
       </c>
@@ -820,8 +994,26 @@
       <c r="E25">
         <v>32.230600000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="K25">
+        <v>13.2776663066194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>17.076578064595601</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>-28.611291097761001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="B26">
         <v>17.584</v>
       </c>
@@ -834,8 +1026,26 @@
       <c r="E26">
         <v>25.5242</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="K26">
+        <v>62.027458475111303</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>31.826609238634799</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>48.689483623764197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="B27">
         <v>8.8134999999999994</v>
       </c>
@@ -848,8 +1058,26 @@
       <c r="E27">
         <v>10.7059</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="K27">
+        <v>16.118716056020698</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>22.075720143458501</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>-36.957063247061399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="B28">
         <v>115.0211</v>
       </c>
@@ -862,8 +1090,46 @@
       <c r="E28">
         <v>87.805400000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="K28">
+        <v>6.5271032278378396</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>7.6017464550894802</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <v>-16.464320997227802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="K29">
+        <v>107.79274358708</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>81.858076440995902</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>24.059752338647002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1060,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1074,12 +1340,12 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1089,620 +1355,1472 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>B48</f>
+        <f t="shared" ref="B3:B38" si="0">B48</f>
         <v>10.7328959439632</v>
       </c>
       <c r="C3">
-        <f>E48</f>
+        <f t="shared" ref="C3:C38" si="1">E48</f>
         <v>5.6265775954835702</v>
       </c>
       <c r="D3" s="1">
-        <f>(C3-B3)/(ABS(B3))</f>
+        <f t="shared" ref="D3:D43" si="2">(C3-B3)/(ABS(B3))</f>
         <v>-0.4757633331339356</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <f>B49</f>
+        <f t="shared" si="0"/>
         <v>71.5126143304321</v>
       </c>
       <c r="C4">
-        <f>E49</f>
+        <f t="shared" si="1"/>
         <v>72.362691718504294</v>
       </c>
       <c r="D4" s="1">
-        <f>(C4-B4)/(ABS(B4))</f>
+        <f t="shared" si="2"/>
         <v>1.1887097067159581E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="I4">
+        <v>7.2541089663834999</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2.7840142623096198</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>61.6215544154201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <f>B50</f>
+        <f t="shared" si="0"/>
         <v>2.4706148723044699</v>
       </c>
       <c r="C5">
-        <f>E50</f>
+        <f t="shared" si="1"/>
         <v>2.4674010805812698</v>
       </c>
       <c r="D5" s="1">
-        <f>(C5-B5)/(ABS(B5))</f>
+        <f t="shared" si="2"/>
         <v>-1.3008064345546306E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="I5">
+        <v>62.582005475026598</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>76.685734163829295</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>-22.536396176103299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <f>B51</f>
+        <f t="shared" si="0"/>
         <v>1794.4411317443801</v>
       </c>
       <c r="C6">
-        <f>E51</f>
+        <f t="shared" si="1"/>
         <v>978.238711043075</v>
       </c>
       <c r="D6" s="1">
-        <f>(C6-B6)/(ABS(B6))</f>
+        <f t="shared" si="2"/>
         <v>-0.45485048590469668</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="I6">
+        <v>1.8313505884044501</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>1.86345747575527</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>-1.75318082480278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7">
-        <f>B52</f>
+        <f t="shared" si="0"/>
         <v>5.5638378891337696</v>
       </c>
       <c r="C7">
-        <f>E52</f>
+        <f t="shared" si="1"/>
         <v>6.6967803152293097</v>
       </c>
       <c r="D7" s="1">
-        <f>(C7-B7)/(ABS(B7))</f>
+        <f t="shared" si="2"/>
         <v>0.20362606687520279</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7">
+        <v>1252.3258050074801</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>482.29240471235698</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <v>61.488264253288698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <f>B53</f>
+        <f t="shared" si="0"/>
         <v>40.227479633915003</v>
       </c>
       <c r="C8">
-        <f>E53</f>
+        <f t="shared" si="1"/>
         <v>25.2951241925076</v>
       </c>
       <c r="D8" s="1">
-        <f>(C8-B8)/(ABS(B8))</f>
+        <f t="shared" si="2"/>
         <v>-0.37119788704878803</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="I8">
+        <v>3.3282429698069</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>15.1018503367618</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>-353.74843344559002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <f>B54</f>
+        <f t="shared" si="0"/>
         <v>6.3484558693051003</v>
       </c>
       <c r="C9">
-        <f>E54</f>
+        <f t="shared" si="1"/>
         <v>6.81498709414437</v>
       </c>
       <c r="D9" s="1">
-        <f>(C9-B9)/(ABS(B9))</f>
+        <f t="shared" si="2"/>
         <v>7.3487354160396173E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="I9">
+        <v>27.3527413472858</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>6.8601177652610899</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>74.919816342496802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <f>B55</f>
+        <f t="shared" si="0"/>
         <v>35.368208023467602</v>
       </c>
       <c r="C10">
-        <f>E55</f>
+        <f t="shared" si="1"/>
         <v>22.4143988649449</v>
       </c>
       <c r="D10" s="1">
-        <f>(C10-B10)/(ABS(B10))</f>
+        <f t="shared" si="2"/>
         <v>-0.36625573876764006</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="I10">
+        <v>3.86919741560749</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>15.0903258415956</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <v>-290.01178334102599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
-        <f>B56</f>
+        <f t="shared" si="0"/>
         <v>5.3985127273913598</v>
       </c>
       <c r="C11">
-        <f>E56</f>
+        <f t="shared" si="1"/>
         <v>6.5642534258666396</v>
       </c>
       <c r="D11" s="1">
-        <f>(C11-B11)/(ABS(B11))</f>
+        <f t="shared" si="2"/>
         <v>0.21593738078275918</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="I11">
+        <v>24.213783143962001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>5.6127968410529396</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11">
+        <v>76.819826923854393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <f>B57</f>
+        <f t="shared" si="0"/>
         <v>35.727752166026903</v>
       </c>
       <c r="C12">
-        <f>E57</f>
+        <f t="shared" si="1"/>
         <v>22.824899985721299</v>
       </c>
       <c r="D12" s="1">
-        <f>(C12-B12)/(ABS(B12))</f>
+        <f t="shared" si="2"/>
         <v>-0.3611436879752758</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="I12">
+        <v>3.70957848113814</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>12.049505692533099</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12">
+        <v>-224.821425232016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <f>B58</f>
+        <f t="shared" si="0"/>
         <v>6.0306441130110802</v>
       </c>
       <c r="C13">
-        <f>E58</f>
+        <f t="shared" si="1"/>
         <v>6.5652373750340898</v>
       </c>
       <c r="D13" s="1">
-        <f>(C13-B13)/(ABS(B13))</f>
+        <f t="shared" si="2"/>
         <v>8.8646129999551404E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="I13">
+        <v>24.427792111491101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>5.9835097486663704</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13">
+        <v>75.505319017957106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <f>B59</f>
+        <f t="shared" si="0"/>
         <v>35.349015144250799</v>
       </c>
       <c r="C14">
-        <f>E59</f>
+        <f t="shared" si="1"/>
         <v>22.3796903638356</v>
       </c>
       <c r="D14" s="1">
-        <f>(C14-B14)/(ABS(B14))</f>
+        <f t="shared" si="2"/>
         <v>-0.36689352525071817</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="I14">
+        <v>3.7776068717897302</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>16.213149963814299</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>-329.19103321444902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <f>B60</f>
+        <f t="shared" si="0"/>
         <v>5.75134787318206</v>
       </c>
       <c r="C15">
-        <f>E60</f>
+        <f t="shared" si="1"/>
         <v>6.6492313314214204</v>
       </c>
       <c r="D15" s="1">
-        <f>(C15-B15)/(ABS(B15))</f>
+        <f t="shared" si="2"/>
         <v>0.15611704908793608</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="I15">
+        <v>24.304075626352901</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>5.6166880356922597</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>76.889933515504396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <f>B61</f>
+        <f t="shared" si="0"/>
         <v>35.747679835966203</v>
       </c>
       <c r="C16">
-        <f>E61</f>
+        <f t="shared" si="1"/>
         <v>22.733917484848199</v>
       </c>
       <c r="D16" s="1">
-        <f>(C16-B16)/(ABS(B16))</f>
+        <f t="shared" si="2"/>
         <v>-0.36404495091244188</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="I16">
+        <v>4.3550869405533099</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>13.5446976944376</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16">
+        <v>-211.00866364603101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <f>B62</f>
+        <f t="shared" si="0"/>
         <v>5.7663513522972103</v>
       </c>
       <c r="C17">
-        <f>E62</f>
+        <f t="shared" si="1"/>
         <v>6.29690825290775</v>
       </c>
       <c r="D17" s="1">
-        <f>(C17-B17)/(ABS(B17))</f>
+        <f t="shared" si="2"/>
         <v>9.2009117758524273E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="I17">
+        <v>24.409618004063798</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>5.8104240434358196</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <v>76.196169712821899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <f>B63</f>
+        <f t="shared" si="0"/>
         <v>35.488825183120902</v>
       </c>
       <c r="C18">
-        <f>E63</f>
+        <f t="shared" si="1"/>
         <v>22.514065866750499</v>
       </c>
       <c r="D18" s="1">
-        <f>(C18-B18)/(ABS(B18))</f>
+        <f t="shared" si="2"/>
         <v>-0.36560126319823688</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="I18">
+        <v>3.4469003170322901</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>13.3851693036644</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <v>-288.32481570539602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <f>B64</f>
+        <f t="shared" si="0"/>
         <v>5.4661075658038101</v>
       </c>
       <c r="C19">
-        <f>E64</f>
+        <f t="shared" si="1"/>
         <v>5.7438175343530702</v>
       </c>
       <c r="D19" s="1">
-        <f>(C19-B19)/(ABS(B19))</f>
+        <f t="shared" si="2"/>
         <v>5.0805800143163098E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="I19">
+        <v>24.502672069805499</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>6.2146298714958599</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19">
+        <v>74.6369299895496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <f>B65</f>
+        <f t="shared" si="0"/>
         <v>35.862522777025298</v>
       </c>
       <c r="C20">
-        <f>E65</f>
+        <f t="shared" si="1"/>
         <v>22.827678048648</v>
       </c>
       <c r="D20" s="1">
-        <f>(C20-B20)/(ABS(B20))</f>
+        <f t="shared" si="2"/>
         <v>-0.36346703240653905</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="I20">
+        <v>4.09929782966422</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>14.9213104658243</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20">
+        <v>-263.99674007210399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <f>B66</f>
+        <f t="shared" si="0"/>
         <v>5.1781021221354102</v>
       </c>
       <c r="C21">
-        <f>E66</f>
+        <f t="shared" si="1"/>
         <v>5.8227145998409204</v>
       </c>
       <c r="D21" s="1">
-        <f>(C21-B21)/(ABS(B21))</f>
+        <f t="shared" si="2"/>
         <v>0.12448817394889015</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="I21">
+        <v>24.189403214598201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>5.5655195536939104</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <v>76.991910448062896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <f>B67</f>
+        <f t="shared" si="0"/>
         <v>35.464156944071298</v>
       </c>
       <c r="C22">
-        <f>E67</f>
+        <f t="shared" si="1"/>
         <v>22.578114752471802</v>
       </c>
       <c r="D22" s="1">
-        <f>(C22-B22)/(ABS(B22))</f>
+        <f t="shared" si="2"/>
         <v>-0.36335396924622831</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="I22">
+        <v>3.51323480355058</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <v>12.731061972642699</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22">
+        <v>-262.37435538826901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <f>B68</f>
+        <f t="shared" si="0"/>
         <v>5.7422702157383299</v>
       </c>
       <c r="C23">
-        <f>E68</f>
+        <f t="shared" si="1"/>
         <v>5.7639650079024003</v>
       </c>
       <c r="D23" s="1">
-        <f>(C23-B23)/(ABS(B23))</f>
+        <f t="shared" si="2"/>
         <v>3.7780862531703358E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="I23">
+        <v>24.506695772463001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>5.6792238061809099</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>76.825828096489502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <f>B69</f>
+        <f t="shared" si="0"/>
         <v>35.914913601561302</v>
       </c>
       <c r="C24">
-        <f>E69</f>
+        <f t="shared" si="1"/>
         <v>22.788847596193801</v>
       </c>
       <c r="D24" s="1">
-        <f>(C24-B24)/(ABS(B24))</f>
+        <f t="shared" si="2"/>
         <v>-0.3654767529441274</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="I24">
+        <v>3.7415533469361102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24">
+        <v>15.415689029965</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>-312.01307586830501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25">
-        <f>B70</f>
+        <f t="shared" si="0"/>
         <v>5.5923028456199599</v>
       </c>
       <c r="C25">
-        <f>E70</f>
+        <f t="shared" si="1"/>
         <v>6.8432280688244198</v>
       </c>
       <c r="D25" s="1">
-        <f>(C25-B25)/(ABS(B25))</f>
+        <f t="shared" si="2"/>
         <v>0.22368696004799127</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="I25">
+        <v>24.257627766171499</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>5.8506189144666703</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>75.881322894130406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26">
-        <f>B71</f>
+        <f t="shared" si="0"/>
         <v>35.500245858191199</v>
       </c>
       <c r="C26">
-        <f>E71</f>
+        <f t="shared" si="1"/>
         <v>22.492718489112701</v>
       </c>
       <c r="D26" s="1">
-        <f>(C26-B26)/(ABS(B26))</f>
+        <f t="shared" si="2"/>
         <v>-0.36640668408433541</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="I26">
+        <v>4.3282157285758602</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>14.396652014908</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>-232.623254424636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27">
-        <f>B72</f>
+        <f t="shared" si="0"/>
         <v>5.4644389703628802</v>
       </c>
       <c r="C27">
-        <f>E72</f>
+        <f t="shared" si="1"/>
         <v>5.9142964000375899</v>
       </c>
       <c r="D27" s="1">
-        <f>(C27-B27)/(ABS(B27))</f>
+        <f t="shared" si="2"/>
         <v>8.2324540929923834E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="I27">
+        <v>24.404757278507699</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>6.5458158427466504</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>73.178115364780595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28">
-        <f>B73</f>
+        <f t="shared" si="0"/>
         <v>35.904369498447799</v>
       </c>
       <c r="C28">
-        <f>E73</f>
+        <f t="shared" si="1"/>
         <v>22.8666331296103</v>
       </c>
       <c r="D28" s="1">
-        <f>(C28-B28)/(ABS(B28))</f>
+        <f t="shared" si="2"/>
         <v>-0.36312394705611362</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="I28">
+        <v>3.4600240502050701</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>10.618491084438199</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <v>-206.89067273416401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29">
-        <f>B74</f>
+        <f t="shared" si="0"/>
         <v>5.1843202621932498</v>
       </c>
       <c r="C29">
-        <f>E74</f>
+        <f t="shared" si="1"/>
         <v>6.8814182778661603</v>
       </c>
       <c r="D29" s="1">
-        <f>(C29-B29)/(ABS(B29))</f>
+        <f t="shared" si="2"/>
         <v>0.32735207893096974</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="I29">
+        <v>24.522361722014502</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>6.0965075974779204</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>75.138986747736894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30">
-        <f>B75</f>
+        <f t="shared" si="0"/>
         <v>35.468367013192101</v>
       </c>
       <c r="C30">
-        <f>E75</f>
+        <f t="shared" si="1"/>
         <v>22.537598302411499</v>
       </c>
       <c r="D30" s="1">
-        <f>(C30-B30)/(ABS(B30))</f>
+        <f t="shared" si="2"/>
         <v>-0.3645718650078007</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="I30">
+        <v>4.0572691422375904</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>15.7514735133032</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30">
+        <v>-288.228460106944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="B31">
-        <f>B76</f>
+        <f t="shared" si="0"/>
         <v>5.7227458144297598</v>
       </c>
       <c r="C31">
-        <f>E76</f>
+        <f t="shared" si="1"/>
         <v>5.1716049830608197</v>
       </c>
       <c r="D31" s="1">
-        <f>(C31-B31)/(ABS(B31))</f>
+        <f t="shared" si="2"/>
         <v>-9.630706119766011E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="I31">
+        <v>24.1454564076491</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31">
+        <v>5.47208896177436</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31">
+        <v>77.336982704369802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32">
-        <f>B77</f>
+        <f t="shared" si="0"/>
         <v>35.908281288395898</v>
       </c>
       <c r="C32">
-        <f>E77</f>
+        <f t="shared" si="1"/>
         <v>22.930253865235901</v>
       </c>
       <c r="D32" s="1">
-        <f>(C32-B32)/(ABS(B32))</f>
+        <f t="shared" si="2"/>
         <v>-0.36142157066576086</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32">
+        <v>3.4833793433828202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32">
+        <v>12.7223325727077</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>-265.22960374314601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>21</v>
       </c>
       <c r="B33">
-        <f>B78</f>
+        <f t="shared" si="0"/>
         <v>5.6253586253864603</v>
       </c>
       <c r="C33">
-        <f>E78</f>
+        <f t="shared" si="1"/>
         <v>6.2992339002832498</v>
       </c>
       <c r="D33" s="1">
-        <f>(C33-B33)/(ABS(B33))</f>
+        <f t="shared" si="2"/>
         <v>0.11979241143056804</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="I33">
+        <v>24.434212387879299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33">
+        <v>5.6786208474647699</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <v>76.759550267797195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34">
-        <f>B79</f>
+        <f t="shared" si="0"/>
         <v>35.496439767826203</v>
       </c>
       <c r="C34">
-        <f>E79</f>
+        <f t="shared" si="1"/>
         <v>22.836313930590599</v>
       </c>
       <c r="D34" s="1">
-        <f>(C34-B34)/(ABS(B34))</f>
+        <f t="shared" si="2"/>
         <v>-0.35665903172381475</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="I34">
+        <v>3.776213711254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34">
+        <v>15.306961684289901</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <v>-305.35210278675697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35">
-        <f>B80</f>
+        <f t="shared" si="0"/>
         <v>5.4772093098218804</v>
       </c>
       <c r="C35">
-        <f>E80</f>
+        <f t="shared" si="1"/>
         <v>5.3864788933752399</v>
       </c>
       <c r="D35" s="1">
-        <f>(C35-B35)/(ABS(B35))</f>
+        <f t="shared" si="2"/>
         <v>-1.6565081105069372E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="I35">
+        <v>24.246598722902</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35">
+        <v>5.9944758232439499</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <v>75.277044455798702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36">
-        <f>B81</f>
+        <f t="shared" si="0"/>
         <v>35.926162253986099</v>
       </c>
       <c r="C36">
-        <f>E81</f>
+        <f t="shared" si="1"/>
         <v>22.8904626493857</v>
       </c>
       <c r="D36" s="1">
-        <f>(C36-B36)/(ABS(B36))</f>
+        <f t="shared" si="2"/>
         <v>-0.36284698355594758</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="I36">
+        <v>4.3307101949267901</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36">
+        <v>14.801695290382799</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36">
+        <v>-241.78447931524499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>21</v>
       </c>
       <c r="B37">
-        <f>B82</f>
+        <f t="shared" si="0"/>
         <v>5.16464759334304</v>
       </c>
       <c r="C37">
-        <f>E82</f>
+        <f t="shared" si="1"/>
         <v>5.7425907495556698</v>
       </c>
       <c r="D37" s="1">
-        <f>(C37-B37)/(ABS(B37))</f>
+        <f t="shared" si="2"/>
         <v>0.11190369638338311</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="I37">
+        <v>24.307271443912501</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37">
+        <v>6.0479943060155898</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37">
+        <v>75.118579969080599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38">
-        <f>B83</f>
+        <f t="shared" si="0"/>
         <v>35.486034318441398</v>
       </c>
       <c r="C38">
-        <f>E83</f>
+        <f t="shared" si="1"/>
         <v>22.837918638843998</v>
       </c>
       <c r="D38" s="1">
-        <f>(C38-B38)/(ABS(B38))</f>
+        <f t="shared" si="2"/>
         <v>-0.35642516619628078</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="I38">
+        <v>3.44670099311017</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38">
+        <v>11.881710311603801</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38">
+        <v>-244.72704001173599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1715,11 +2833,35 @@
         <v>99.156746209703115</v>
       </c>
       <c r="D39" s="3">
-        <f>(C39-B39)/(ABS(B39))</f>
+        <f t="shared" si="2"/>
         <v>0.10818568553755921</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="I39">
+        <v>24.4741650836982</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39">
+        <v>5.86745112814652</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39">
+        <v>76.025939564922098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -1732,11 +2874,35 @@
         <v>365.74863616111242</v>
       </c>
       <c r="D40" s="3">
-        <f>(C40-B40)/(ABS(B40))</f>
+        <f t="shared" si="2"/>
         <v>-0.36373887040059011</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="I40">
+        <v>42.429030305404801</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <v>62.710134462238798</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40">
+        <v>-47.800065216787402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1749,11 +2915,35 @@
         <v>52.767153135742099</v>
       </c>
       <c r="D41" s="1">
-        <f>(C41-B41)/(ABS(B41))</f>
+        <f t="shared" si="2"/>
         <v>-0.3701612580528853</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="I41">
+        <v>10.227535577518299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41">
+        <v>10.207966072620801</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41">
+        <v>0.19134135246171599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1766,11 +2956,35 @@
         <v>38.204568043735499</v>
       </c>
       <c r="D42" s="1">
-        <f>(C42-B42)/(ABS(B42))</f>
+        <f t="shared" si="2"/>
         <v>-1.8467693920237768E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="I42">
+        <v>1830.0722801627501</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42">
+        <v>955.37227100879795</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42">
+        <v>47.795926895093103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1783,19 +2997,31 @@
         <v>1614.57248498794</v>
       </c>
       <c r="D43" s="3">
-        <f>(C43-B43)/(ABS(B43))</f>
+        <f t="shared" si="2"/>
         <v>-0.39442402547498751</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48">
         <v>10.7328959439632</v>
       </c>
@@ -1808,8 +3034,32 @@
       <c r="E48">
         <v>5.6265775954835702</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="I48">
+        <v>10.265882601842099</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>5.2706638230191301</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>48.658444408146998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
       <c r="B49">
         <v>71.5126143304321</v>
       </c>
@@ -1822,8 +3072,32 @@
       <c r="E49">
         <v>72.362691718504294</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="I49">
+        <v>89.845229400050997</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49">
+        <v>90.857735415003503</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49">
+        <v>-1.12694465995986</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50">
         <v>2.4706148723044699</v>
       </c>
@@ -1836,8 +3110,32 @@
       <c r="E50">
         <v>2.4674010805812698</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="I50">
+        <v>2.35505368369525</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50">
+        <v>2.3414275397686399</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>0.57859164829005005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
       <c r="B51">
         <v>1794.4411317443801</v>
       </c>
@@ -1850,8 +3148,32 @@
       <c r="E51">
         <v>978.238711043075</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="I51">
+        <v>1725.52550583539</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>925.22375788085196</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51">
+        <v>46.380174923411602</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
       <c r="B52">
         <v>5.5638378891337696</v>
       </c>
@@ -1864,8 +3186,32 @@
       <c r="E52">
         <v>6.6967803152293097</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="I52">
+        <v>4.4587791520769704</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52">
+        <v>6.0995060232773204</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52">
+        <v>-36.797670735409</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53">
         <v>40.227479633915003</v>
       </c>
@@ -1878,8 +3224,32 @@
       <c r="E53">
         <v>25.2951241925076</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="I53">
+        <v>37.962756072977598</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53">
+        <v>23.226865524020099</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53">
+        <v>38.816703720430603</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54">
         <v>6.3484558693051003</v>
       </c>
@@ -1892,8 +3262,32 @@
       <c r="E54">
         <v>6.81498709414437</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="I54">
+        <v>4.9670171157828999</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54">
+        <v>5.8283636808232302</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54">
+        <v>-17.341324681635701</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
       <c r="B55">
         <v>35.368208023467602</v>
       </c>
@@ -1906,8 +3300,32 @@
       <c r="E55">
         <v>22.4143988649449</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="I55">
+        <v>34.049753192000097</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>21.239937073601901</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55">
+        <v>37.620878031526502</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
       <c r="B56">
         <v>5.3985127273913598</v>
       </c>
@@ -1920,8 +3338,32 @@
       <c r="E56">
         <v>6.5642534258666396</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="I56">
+        <v>4.7912137729325899</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56">
+        <v>5.1015975077987203</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56">
+        <v>-6.4781858955992098</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
       <c r="B57">
         <v>35.727752166026903</v>
       </c>
@@ -1934,8 +3376,32 @@
       <c r="E57">
         <v>22.824899985721299</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="I57">
+        <v>34.370906827445999</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57">
+        <v>21.585668713167902</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57">
+        <v>37.197849269629302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
       <c r="B58">
         <v>6.0306441130110802</v>
       </c>
@@ -1948,8 +3414,32 @@
       <c r="E58">
         <v>6.5652373750340898</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="I58">
+        <v>5.3695453757378599</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58">
+        <v>6.1166567481074203</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58">
+        <v>-13.913866446596399</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
       <c r="B59">
         <v>35.349015144250799</v>
       </c>
@@ -1962,8 +3452,32 @@
       <c r="E59">
         <v>22.3796903638356</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="I59">
+        <v>34.134708713136199</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>21.2624500881508</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59">
+        <v>37.710175684117402</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
       <c r="B60">
         <v>5.75134787318206</v>
       </c>
@@ -1976,8 +3490,32 @@
       <c r="E60">
         <v>6.6492313314214204</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="I60">
+        <v>5.0634041700120704</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60">
+        <v>5.1412439460531498</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60">
+        <v>-1.53730125874771</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
       <c r="B61">
         <v>35.747679835966203</v>
       </c>
@@ -1990,8 +3528,32 @@
       <c r="E61">
         <v>22.733917484848199</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="I61">
+        <v>34.434179217889998</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61">
+        <v>21.611531887217801</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61">
+        <v>37.238138448237699</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
       <c r="B62">
         <v>5.7663513522972103</v>
       </c>
@@ -2004,8 +3566,32 @@
       <c r="E62">
         <v>6.29690825290775</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="I62">
+        <v>4.9767295265503098</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62">
+        <v>5.5413275529382204</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62">
+        <v>-11.344760115570701</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
       <c r="B63">
         <v>35.488825183120902</v>
       </c>
@@ -2018,8 +3604,32 @@
       <c r="E63">
         <v>22.514065866750499</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="I63">
+        <v>34.111739005699498</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63">
+        <v>21.4687277083253</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63">
+        <v>37.063520259878104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
       <c r="B64">
         <v>5.4661075658038101</v>
       </c>
@@ -2032,8 +3642,32 @@
       <c r="E64">
         <v>5.7438175343530702</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="I64">
+        <v>5.3965559010661801</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64">
+        <v>5.7402493169096998</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64">
+        <v>-6.3687548529909499</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
       <c r="B65">
         <v>35.862522777025298</v>
       </c>
@@ -2046,8 +3680,32 @@
       <c r="E65">
         <v>22.827678048648</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="I65">
+        <v>34.082421829964403</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65">
+        <v>21.1604425411285</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q65">
+        <v>37.913911614917097</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
       <c r="B66">
         <v>5.1781021221354102</v>
       </c>
@@ -2060,8 +3718,32 @@
       <c r="E66">
         <v>5.8227145998409204</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="I66">
+        <v>4.5587967267716998</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66">
+        <v>5.5855800660604098</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66">
+        <v>-22.523121797883601</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
       <c r="B67">
         <v>35.464156944071298</v>
       </c>
@@ -2074,8 +3756,32 @@
       <c r="E67">
         <v>22.578114752471802</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="I67">
+        <v>34.391163043667198</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67">
+        <v>21.539817091883801</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67">
+        <v>37.368163255967097</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
       <c r="B68">
         <v>5.7422702157383299</v>
       </c>
@@ -2088,8 +3794,32 @@
       <c r="E68">
         <v>5.7639650079024003</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="I68">
+        <v>5.3511440168629596</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68">
+        <v>5.9226377276731599</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68">
+        <v>-10.6798417125245</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17">
       <c r="B69">
         <v>35.914913601561302</v>
       </c>
@@ -2102,8 +3832,32 @@
       <c r="E69">
         <v>22.788847596193801</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="I69">
+        <v>34.109269751884099</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69">
+        <v>21.253167358831998</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69">
+        <v>37.6909341260289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
       <c r="B70">
         <v>5.5923028456199599</v>
       </c>
@@ -2116,8 +3870,32 @@
       <c r="E70">
         <v>6.8432280688244198</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="I70">
+        <v>5.0687285234600203</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70">
+        <v>5.0637757610942504</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70">
+        <v>9.7712125296212093E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
       <c r="B71">
         <v>35.500245858191199</v>
       </c>
@@ -2130,8 +3908,32 @@
       <c r="E71">
         <v>22.492718489112701</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="I71">
+        <v>34.395150487087299</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71">
+        <v>21.793308863603698</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71">
+        <v>36.638425606582402</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
       <c r="B72">
         <v>5.4644389703628802</v>
       </c>
@@ -2144,8 +3946,32 @@
       <c r="E72">
         <v>5.9142964000375899</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="I72">
+        <v>4.99333161938742</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72">
+        <v>5.1244907385096701</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72">
+        <v>-2.6266855302180798</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
       <c r="B73">
         <v>35.904369498447799</v>
       </c>
@@ -2158,8 +3984,32 @@
       <c r="E73">
         <v>22.8666331296103</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="I73">
+        <v>34.104484969396999</v>
+      </c>
+      <c r="J73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73">
+        <v>21.591701455174299</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q73">
+        <v>36.689554249099103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
       <c r="B74">
         <v>5.1843202621932498</v>
       </c>
@@ -2172,8 +4022,32 @@
       <c r="E74">
         <v>6.8814182778661603</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="I74">
+        <v>5.3746587050600603</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74">
+        <v>5.9124715257357696</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74">
+        <v>-10.006455296768401</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
       <c r="B75">
         <v>35.468367013192101</v>
       </c>
@@ -2186,8 +4060,32 @@
       <c r="E75">
         <v>22.537598302411499</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="I75">
+        <v>34.0723778508764</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75">
+        <v>21.1191987117429</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75">
+        <v>38.016657351668599</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17">
       <c r="B76">
         <v>5.7227458144297598</v>
       </c>
@@ -2200,8 +4098,32 @@
       <c r="E76">
         <v>5.1716049830608197</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="I76">
+        <v>4.5779692467634403</v>
+      </c>
+      <c r="J76" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76">
+        <v>5.3396344613905802</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76">
+        <v>-16.637621914250001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
       <c r="B77">
         <v>35.908281288395898</v>
       </c>
@@ -2214,8 +4136,32 @@
       <c r="E77">
         <v>22.930253865235901</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="I77">
+        <v>34.3860547896792</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77">
+        <v>21.469709633947399</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>24</v>
+      </c>
+      <c r="P77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q77">
+        <v>37.562742323113397</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
       <c r="B78">
         <v>5.6253586253864603</v>
       </c>
@@ -2228,8 +4174,32 @@
       <c r="E78">
         <v>6.2992339002832498</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="I78">
+        <v>5.3652949169485096</v>
+      </c>
+      <c r="J78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78">
+        <v>6.1188451332135196</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78">
+        <v>-14.044898331396499</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
       <c r="B79">
         <v>35.496439767826203</v>
       </c>
@@ -2242,8 +4212,32 @@
       <c r="E79">
         <v>22.836313930590599</v>
       </c>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="I79">
+        <v>34.095244916648902</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79">
+        <v>21.220046742185701</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q79">
+        <v>37.762445191224103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17">
       <c r="B80">
         <v>5.4772093098218804</v>
       </c>
@@ -2256,8 +4250,32 @@
       <c r="E80">
         <v>5.3864788933752399</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="I80">
+        <v>5.0683028041106803</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80">
+        <v>5.37134792653071</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q80">
+        <v>-5.9792229101670999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
       <c r="B81">
         <v>35.926162253986099</v>
       </c>
@@ -2270,8 +4288,32 @@
       <c r="E81">
         <v>22.8904626493857</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="I81">
+        <v>34.3796704944982</v>
+      </c>
+      <c r="J81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81">
+        <v>21.855215386956001</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>24</v>
+      </c>
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81">
+        <v>36.429828812776201</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
       <c r="B82">
         <v>5.16464759334304</v>
       </c>
@@ -2284,8 +4326,32 @@
       <c r="E82">
         <v>5.7425907495556698</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="I82">
+        <v>4.9669769612791601</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82">
+        <v>5.1946242330385104</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82">
+        <v>-4.5832157776049902</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
       <c r="B83">
         <v>35.486034318441398</v>
       </c>
@@ -2298,8 +4364,32 @@
       <c r="E83">
         <v>22.837918638843998</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="I83">
+        <v>34.100470324510901</v>
+      </c>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83">
+        <v>21.5212414087238</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>24</v>
+      </c>
+      <c r="P83" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83">
+        <v>36.888725569117199</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
       <c r="B84">
         <v>83.778830391752507</v>
       </c>
@@ -2312,8 +4402,32 @@
       <c r="E84">
         <v>52.767153135742099</v>
       </c>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="I84">
+        <v>57.519573127231503</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84">
+        <v>72.452974923056203</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>24</v>
+      </c>
+      <c r="P84" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84">
+        <v>-25.962295934972499</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
       <c r="B85">
         <v>38.923393358619499</v>
       </c>
@@ -2326,8 +4440,32 @@
       <c r="E85">
         <v>38.204568043735499</v>
       </c>
-    </row>
-    <row r="86" spans="2:5">
+      <c r="I85">
+        <v>34.818872564499102</v>
+      </c>
+      <c r="J85" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85">
+        <v>34.580824348469399</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85">
+        <v>0.68367583007964405</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
       <c r="B86">
         <v>2666.17658709849</v>
       </c>
@@ -2339,6 +4477,30 @@
       </c>
       <c r="E86">
         <v>1614.57248498794</v>
+      </c>
+      <c r="I86">
+        <v>2551.8589172348802</v>
+      </c>
+      <c r="J86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86">
+        <v>1564.8487664679899</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q86">
+        <v>38.678084595538202</v>
       </c>
     </row>
   </sheetData>
@@ -2348,10 +4510,1404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>110.350725821449</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>99.369449782575103</v>
+      </c>
+      <c r="G4">
+        <v>46.6386749708713</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>25.807938587131201</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>44.664082752672897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>19.931364264154599</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>18.858739386730601</v>
+      </c>
+      <c r="G5">
+        <v>42.879939502175397</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>50.268223187085603</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>-17.2301634999633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>10893.329243816101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>6606.3530380623997</v>
+      </c>
+      <c r="G6">
+        <v>24.921969175683699</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>24.739382147979601</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.73263483481984504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>13.851745244061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1.20817938956209</v>
+      </c>
+      <c r="G7">
+        <v>12784.6945390824</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>7981.2346714369296</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>37.571956474685003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>8.4117563752354592</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>7.6025835520290697</v>
+      </c>
+      <c r="G8">
+        <v>54.409273233156298</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>59.1773098317937</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>-8.7632793369713404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>11045.874835520999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>6733.3919901732997</v>
+      </c>
+      <c r="G9">
+        <v>77.515472110521699</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>79.222536852934496</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>-2.2022245313539899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="G10">
+        <v>75.027053719933207</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>84.174570641433704</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>-12.1922912708889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="G11">
+        <v>120.932704447253</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>114.91826517502</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>4.9733769700455301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>29.811772781054302</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>27.3913585795293</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>8.1189878216943292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13">
+        <v>13256.8313990231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>8446.9342564398394</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>36.282404126657902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>151.55297198862499</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>133.58174530442199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>26.541508618798598</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>26.2911987992462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
+        <v>13995.1431116761</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>10126.3909037673</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17">
+        <v>26.204655194633499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>5.1981580368854496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18">
+        <v>16.4450616879992</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>12.343287579334</v>
+      </c>
+      <c r="G18">
+        <v>65.786322066470802</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>43.0701547567378</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>34.530228467219203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19">
+        <v>14215.887309166201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>10303.805293487199</v>
+      </c>
+      <c r="G19">
+        <v>57.338976933382597</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>58.515046208200097</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>-2.0510817208754002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="G20">
+        <v>32.9692001953212</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>32.866878428271598</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>0.31035562416874601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="G21">
+        <v>16283.234023472</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>12243.3434013632</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>24.810124427895701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>69.673429190015398</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>68.825949807124601</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>1.2163595114279699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="G23">
+        <v>100.711594530762</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>102.030812477583</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>-1.3098967928840901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>9.9512494885098004</v>
+      </c>
+      <c r="G24">
+        <v>105.364098035452</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>115.824416589325</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>-9.9277825643739899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>5.3815928664400703</v>
+      </c>
+      <c r="G25">
+        <v>168.26962968361801</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>161.36026437985299</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>4.1061273604489097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>39.354141509927203</v>
+      </c>
+      <c r="G26">
+        <v>40.894462665462697</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>37.292229295589102</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>8.8086091247652494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>91.277782198022294</v>
+      </c>
+      <c r="G27">
+        <v>16924.241736772499</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>12863.129153305899</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>23.995831817048501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>9.6195465858786093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>39.041568998045499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>88.587878026745898</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>75.182412874053497</v>
+      </c>
+      <c r="G4">
+        <v>43.237237021504399</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>25.051940815057399</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>42.059339262132902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>26.520355347915601</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>25.696322511561998</v>
+      </c>
+      <c r="G5">
+        <v>68.740833337786995</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>75.904394639599403</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>-10.421115011235299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>12914.708076434201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>8116.7514064812303</v>
+      </c>
+      <c r="G6">
+        <v>18.392774725867501</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>17.330958981378</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>5.7730046733853904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>217.031065933788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>218.20301261161501</v>
+      </c>
+      <c r="G7">
+        <v>10506.5590691739</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>6305.9941168069599</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>39.980405808513801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>6.60831293019789</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>6.3047332517130901</v>
+      </c>
+      <c r="G8">
+        <v>387.91459798194597</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>301.37669421923698</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>22.308493728492301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>13253.455688672901</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>8442.1378877301795</v>
+      </c>
+      <c r="G9">
+        <v>8.9990351114659806</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>0.462568345650822</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>94.859800635054199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="G10">
+        <v>5.0194558271609298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>0.77186132351058001</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>84.622609500138694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="G11">
+        <v>8.3711273779931901</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>7.58500814896479</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>9.3908406064280303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>3.57809750508962E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>3.5780975050895502E-3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>120.75056862611299</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>99.284527603111599</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>6734.4846994753698</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>35.174945849624102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>34.929094238832903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
+        <v>16451.573980179401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>12412.1363326714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17">
+        <v>303.236113574461</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>303.90985292019002</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18">
+        <v>8.4024478056779692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>7.9496228689161601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19">
+        <v>16919.138056035201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>12858.209430302501</v>
+      </c>
+      <c r="G19">
+        <v>60.7500285855238</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>41.638620292408604</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>31.459093498548999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="G20">
+        <v>92.937661371401006</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>94.063839918777802</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>-1.21175692475883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="G21">
+        <v>24.553825325586999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>24.2883959345953</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>1.08101034145236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>13482.7731943338</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>9724.3055391800408</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>27.876072681644601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="G23">
+        <v>513.83482066501006</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>403.41143978649598</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>21.4900540869541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>15.132392209061701</v>
+      </c>
+      <c r="G24">
+        <v>15.441339627235701</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>2.06844627751369</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>86.604489458509605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>3.10717117302254</v>
+      </c>
+      <c r="G25">
+        <v>11.130242021500001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>3.2408269710428699</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>70.882690917388302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>37.151104318865201</v>
+      </c>
+      <c r="G26">
+        <v>16.314835149016499</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>12.273532609293801</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>24.770722491587001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>-0.539990287927128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>3.7651775832948401E-3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>4.5939059135280802</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>3.7651775832947699E-3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>36.3023645603215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>10305.298171325299</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>17.777175931541599</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>0.69893955726961798</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>24.5535026154615</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>-0.22218308294035299</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>5.3892026137408298</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>24.0019829159334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2359,584 +5915,32 @@
     <col min="1" max="1" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4">
-        <v>110.350725821449</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>99.369449782575103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>19.931364264154599</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>18.858739386730601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>10893.329243816101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>6606.3530380623997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
-        <v>13.851745244061</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1.20817938956209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <v>8.4117563752354592</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>7.6025835520290697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9">
-        <v>11045.874835520999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>6733.3919901732997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14">
-        <v>151.55297198862499</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>133.58174530442199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15">
-        <v>26.541508618798598</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>26.2911987992462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16">
-        <v>13995.1431116761</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>10126.3909037673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17">
-        <v>26.204655194633499</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>5.1981580368854496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18">
-        <v>16.4450616879992</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>12.343287579334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19">
-        <v>14215.887309166201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>10303.805293487199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>9.9512494885098004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>5.3815928664400703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>39.354141509927203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>91.277782198022294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>9.6195465858786093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>39.041568998045499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4">
-        <v>88.587878026745898</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>75.182412874053497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>26.520355347915601</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>25.696322511561998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>12914.708076434201</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>8116.7514064812303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
-        <v>217.031065933788</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>218.20301261161501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <v>6.60831293019789</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>6.3047332517130901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9">
-        <v>13253.455688672901</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>8442.1378877301795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14">
-        <v>120.75056862611299</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>99.284527603111599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15">
-        <v>35.174945849624102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>34.929094238832903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16">
-        <v>16451.573980179401</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>12412.1363326714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17">
-        <v>303.236113574461</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>303.90985292019002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18">
-        <v>8.4024478056779692</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>7.9496228689161601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19">
-        <v>16919.138056035201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>12858.209430302501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>15.132392209061701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>3.10717117302254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>37.151104318865201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>-0.539990287927128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>4.5939059135280802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>36.3023645603215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>17.777175931541599</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>0.69893955726961798</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36">
-        <v>24.5535026154615</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>-0.22218308294035299</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>5.3892026137408298</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>24.0019829159334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:13">
       <c r="B4">
         <v>48.012705717838301</v>
       </c>
@@ -2946,8 +5950,26 @@
       <c r="D4">
         <v>26.9989596466941</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>48.012705717838301</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>26.9989596466941</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>43.767052401999699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5">
         <v>11.173622664239</v>
       </c>
@@ -2957,8 +5979,26 @@
       <c r="D5">
         <v>17.250556149698301</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <v>11.173622664239</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>17.250556149698301</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>-54.386421199889199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>8.2497234164995294</v>
       </c>
@@ -2968,8 +6008,26 @@
       <c r="D6">
         <v>8.3139951371078595</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <v>8.2497234164995294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>8.3139951371078595</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>-0.77907727766710599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>2901.4565027231301</v>
       </c>
@@ -2979,8 +6037,26 @@
       <c r="D7">
         <v>1844.2761896305601</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <v>2901.4565027231301</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1844.2761896305601</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>36.436193756492898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>11.2475550347444</v>
       </c>
@@ -2990,8 +6066,26 @@
       <c r="D8">
         <v>13.4498160234113</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8">
+        <v>11.2475550347444</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>13.4498160234113</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>-19.579908538913099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>15.917350085189501</v>
       </c>
@@ -3001,8 +6095,26 @@
       <c r="D9">
         <v>13.704121751261599</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9">
+        <v>15.917350085189501</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>13.704121751261599</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>13.9045024585297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>12.261141625322001</v>
       </c>
@@ -3012,8 +6124,26 @@
       <c r="D10">
         <v>14.466422944691301</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10">
+        <v>12.261141625322001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>14.466422944691301</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>-17.9859379065886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11">
         <v>3008.3186012669598</v>
       </c>
@@ -3023,16 +6153,46 @@
       <c r="D11">
         <v>1938.4600612834299</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G11">
+        <v>3008.3186012669598</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1938.4600612834299</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>35.563338920716603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16">
         <v>66.248256436440101</v>
       </c>
@@ -3042,8 +6202,26 @@
       <c r="D16">
         <v>43.5282630245161</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16">
+        <v>66.248256436440101</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>43.5282630245161</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>34.295232258258899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="B17">
         <v>14.3050863086983</v>
       </c>
@@ -3053,8 +6231,26 @@
       <c r="D17">
         <v>14.993531787857901</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="G17">
+        <v>14.3050863086983</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>14.993531787857901</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>-4.8125922787407802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="B18">
         <v>10.2295685014799</v>
       </c>
@@ -3064,8 +6260,26 @@
       <c r="D18">
         <v>10.2436559415608</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="G18">
+        <v>10.2295685014799</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>10.2436559415608</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>-0.13771294535862599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="B19">
         <v>3727.3709297639898</v>
       </c>
@@ -3075,8 +6289,26 @@
       <c r="D19">
         <v>2841.5666053371501</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19">
+        <v>3727.3709297639898</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>2841.5666053371501</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>23.764855741978199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="B20">
         <v>14.7079223907488</v>
       </c>
@@ -3086,8 +6318,26 @@
       <c r="D20">
         <v>13.4697342603379</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="G20">
+        <v>14.7079223907488</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>13.4697342603379</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>8.4185114492425903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="B21">
         <v>20.8968414316207</v>
       </c>
@@ -3097,8 +6347,26 @@
       <c r="D21">
         <v>17.2245778871435</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="G21">
+        <v>20.8968414316207</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>17.2245778871435</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>17.5732947799487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="B22">
         <v>38.272207601993998</v>
       </c>
@@ -3108,8 +6376,26 @@
       <c r="D22">
         <v>40.911188090904197</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22">
+        <v>38.272207601993998</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>40.911188090904197</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>-6.8952920520130503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23">
         <v>3892.0308124349699</v>
       </c>
@@ -3119,8 +6405,26 @@
       <c r="D23">
         <v>2981.9375563294702</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="G23">
+        <v>3892.0308124349699</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>2981.9375563294702</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>23.383505937254501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3128,7 +6432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:13">
       <c r="B28">
         <v>0</v>
       </c>
@@ -3139,7 +6443,7 @@
         <v>43.767052401999699</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:13">
       <c r="B29">
         <v>0</v>
       </c>
@@ -3150,7 +6454,7 @@
         <v>-54.386421199889199</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:13">
       <c r="B30">
         <v>0</v>
       </c>
@@ -3161,7 +6465,7 @@
         <v>-0.77907727766710599</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:13">
       <c r="B31">
         <v>0</v>
       </c>
@@ -3172,7 +6476,7 @@
         <v>36.436193756492898</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:13">
       <c r="B32">
         <v>0</v>
       </c>
@@ -3319,20 +6623,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -3342,8 +6646,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3356,11 +6672,11 @@
         <v>6.2822829115338701</v>
       </c>
       <c r="D3" s="1">
-        <f>(C3-B3)/(ABS(B3))</f>
+        <f t="shared" ref="D3:D8" si="0">(C3-B3)/(ABS(B3))</f>
         <v>-0.38872653597940576</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -3373,11 +6689,29 @@
         <v>1.0474309294178099</v>
       </c>
       <c r="D4" s="1">
-        <f>(C4-B4)/(ABS(B4))</f>
+        <f t="shared" si="0"/>
         <v>-0.3760299312327372</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="I4">
+        <v>7.1020378156481101</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3.3477431940161901</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>52.8622167198263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3390,11 +6724,29 @@
         <v>245.89278461090899</v>
       </c>
       <c r="D5" s="1">
-        <f>(C5-B5)/(ABS(B5))</f>
+        <f t="shared" si="0"/>
         <v>-0.38383792038984654</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="I5">
+        <v>1.1837751706217801</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>0.60336937837971805</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>49.030069784045502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3407,11 +6759,29 @@
         <v>4.4171913154808875</v>
       </c>
       <c r="D6" s="1">
-        <f>(C6-B6)/(ABS(B6))</f>
+        <f t="shared" si="0"/>
         <v>2.6157980862163841E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="I6">
+        <v>275.62076184345898</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>133.27468955328001</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>51.6456276145936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -3424,11 +6794,29 @@
         <v>19.5030185140253</v>
       </c>
       <c r="D7" s="1">
-        <f>(C7-B7)/(ABS(B7))</f>
+        <f t="shared" si="0"/>
         <v>0.1417563077101516</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7">
+        <v>0.13436446477986899</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>5.6082115882620402E-2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>58.2611995109717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3441,15 +6829,225 @@
         <v>277.14270828136699</v>
       </c>
       <c r="D8" s="3">
-        <f>(C8-B8)/(ABS(B8))</f>
+        <f t="shared" si="0"/>
         <v>-0.3590798824771359</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="I8">
+        <v>2.9824894879097501</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>11.7544223319313</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>-294.114459735087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="I9">
+        <v>3.1391520171931302</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>5.3096108506633399</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>-69.141565033570004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="I10">
+        <v>290.16258079961199</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>154.34591742415401</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>46.807091045710699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="I15">
+        <v>9.8461892259614903</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5.94088068463659</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>39.663147352762202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="I16">
+        <v>1.61700734253365</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>0.996729755532902</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>38.359602376872999</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15">
+      <c r="I17">
+        <v>383.65287528670302</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>233.64568076815999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>39.0997185688869</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15">
+      <c r="I18">
+        <v>0.15275599185576499</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>8.7178131246818405E-2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>42.929812318502499</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15">
+      <c r="I19">
+        <v>4.0992379503754703</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>4.2623229199989101</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>-3.9784216383072599</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15">
+      <c r="I20">
+        <v>16.098590877214299</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>18.479727027959701</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20">
+        <v>-14.790960084062799</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15">
+      <c r="I21">
+        <v>415.46665667464401</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>263.412519287534</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>36.5983972346028</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">

--- a/Documentation/Results/IODVS/EnergyAnalysis.xlsx
+++ b/Documentation/Results/IODVS/EnergyAnalysis.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="5" r:id="rId6"/>
+    <sheet name="EEPROM" sheetId="1" r:id="rId1"/>
+    <sheet name="SerialFlash" sheetId="2" r:id="rId2"/>
+    <sheet name="Sandisk" sheetId="3" r:id="rId3"/>
+    <sheet name="Lexar" sheetId="9" r:id="rId4"/>
+    <sheet name="SwissBit" sheetId="10" r:id="rId5"/>
+    <sheet name="Kingston" sheetId="11" r:id="rId6"/>
+    <sheet name="HIH6130" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="33">
   <si>
     <t>Idle</t>
   </si>
@@ -109,6 +110,21 @@
   <si>
     <t>SwissBit SDCard Read/Modify/Write Energy Consumption</t>
   </si>
+  <si>
+    <t>Write Complete / Verify</t>
+  </si>
+  <si>
+    <t>%Change</t>
+  </si>
+  <si>
+    <t>Static (uJ)</t>
+  </si>
+  <si>
+    <t>IODVS (uJ)</t>
+  </si>
+  <si>
+    <t>Energy Usage</t>
+  </si>
 </sst>
 </file>
 
@@ -150,20 +166,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -182,13 +219,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -539,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1328,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
@@ -4510,1437 +4557,962 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="F14:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="6"/>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>114.68728810717801</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>102.608352567336</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>B4</f>
+        <v>114.68728810717801</v>
+      </c>
+      <c r="H4">
+        <f>D4</f>
+        <v>102.608352567336</v>
+      </c>
+      <c r="I4">
+        <f>100*((H4/G4)-1)</f>
+        <v>-10.532061346287968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>20.022635268297901</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>18.916046009165498</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">B5</f>
+        <v>20.022635268297901</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="1">D5</f>
+        <v>18.916046009165498</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="2">100*((H5/G5)-1)</f>
+        <v>-5.526691388543048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>10899.2687815564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>6553.0588152423497</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>10899.2687815564</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6553.0588152423497</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-39.876160992273633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>66.878091309646706</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>66.143239129507407</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <f>B7+B8+B9</f>
+        <v>75.524086204635751</v>
+      </c>
+      <c r="H7">
+        <f>SUM(D7:D9)</f>
+        <v>86.331451885661437</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>14.30982647276613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>1.4942931745308401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>3.0594014915445298</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f>B10</f>
+        <v>11109.5027911365</v>
+      </c>
+      <c r="H8">
+        <f>D10</f>
+        <v>6760.9146657045103</v>
+      </c>
+      <c r="I8">
+        <f>100*((H8/G8)-1)</f>
+        <v>-39.142959025145807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>7.1517017204581999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>17.128811264609499</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>11109.5027911365</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>6760.9146657045103</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>110.350725821449</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>99.369449782575103</v>
-      </c>
-      <c r="G4">
-        <v>46.6386749708713</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>25.807938587131201</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>44.664082752672897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>19.931364264154599</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>18.858739386730601</v>
-      </c>
-      <c r="G5">
-        <v>42.879939502175397</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>50.268223187085603</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>-17.2301634999633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6">
-        <v>10893.329243816101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>6606.3530380623997</v>
-      </c>
-      <c r="G6">
-        <v>24.921969175683699</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>24.739382147979601</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6">
-        <v>0.73263483481984504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7">
-        <v>13.851745244061</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1.20817938956209</v>
-      </c>
-      <c r="G7">
-        <v>12784.6945390824</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>7981.2346714369296</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>37.571956474685003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8">
-        <v>8.4117563752354592</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>7.6025835520290697</v>
-      </c>
-      <c r="G8">
-        <v>54.409273233156298</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>59.1773098317937</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>-8.7632793369713404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
-        <v>11045.874835520999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>6733.3919901732997</v>
-      </c>
-      <c r="G9">
-        <v>77.515472110521699</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>79.222536852934496</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9">
-        <v>-2.2022245313539899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="G10">
-        <v>75.027053719933207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>84.174570641433704</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>-12.1922912708889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="G11">
-        <v>120.932704447253</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>114.91826517502</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>4.9733769700455301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>29.811772781054302</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>27.3913585795293</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>8.1189878216943292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13">
-        <v>13256.8313990231</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
-        <v>8446.9342564398394</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13">
-        <v>36.282404126657902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14">
-        <v>151.55297198862499</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>133.58174530442199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    <row r="14" spans="1:9">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15">
-        <v>26.541508618798598</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
+        <v>157.07123335679501</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>26.2911987992462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>138.952913872838</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <f>B15</f>
+        <v>157.07123335679501</v>
+      </c>
+      <c r="H15" s="10">
+        <f>D15</f>
+        <v>138.952913872838</v>
+      </c>
+      <c r="I15" s="12">
+        <f>((H15/G15)-1)</f>
+        <v>-0.11535097227383684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
-        <v>13995.1431116761</v>
+        <v>26.4798983715189</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>10126.3909037673</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>26.234707562508699</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" ref="G16:G17" si="3">B16</f>
+        <v>26.4798983715189</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" ref="H16:H17" si="4">D16</f>
+        <v>26.234707562508699</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ref="I16:I19" si="5">((H16/G16)-1)</f>
+        <v>-9.2595071767315185E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
-        <v>26.204655194633499</v>
+        <v>14021.9688782512</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>5.1981580368854496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10126.954813652201</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="3"/>
+        <v>14021.9688782512</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="4"/>
+        <v>10126.954813652201</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.27777939734557311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
-        <v>16.4450616879992</v>
+        <v>87.264044543905499</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>12.343287579334</v>
-      </c>
-      <c r="G18">
-        <v>65.786322066470802</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>43.0701547567378</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>34.530228467219203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>87.822739176491694</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10">
+        <f>B18+B19</f>
+        <v>89.85558882025876</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(D18:D19)</f>
+        <v>91.87934878285337</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="5"/>
+        <v>2.2522360480468295E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
-        <v>14215.887309166201</v>
+        <v>2.5915442763532601</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19">
-        <v>10303.805293487199</v>
-      </c>
-      <c r="G19">
-        <v>57.338976933382597</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>58.515046208200097</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>-2.0510817208754002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="G20">
-        <v>32.9692001953212</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>32.866878428271598</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>0.31035562416874601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="G21">
-        <v>16283.234023472</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>12243.3434013632</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>24.810124427895701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>69.673429190015398</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22">
-        <v>68.825949807124601</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>1.2163595114279699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="G23">
-        <v>100.711594530762</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>102.030812477583</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>-1.3098967928840901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>9.9512494885098004</v>
-      </c>
-      <c r="G24">
-        <v>105.364098035452</v>
-      </c>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>115.824416589325</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>-9.9277825643739899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>5.3815928664400703</v>
-      </c>
-      <c r="G25">
-        <v>168.26962968361801</v>
-      </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>161.36026437985299</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>4.1061273604489097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>39.354141509927203</v>
-      </c>
-      <c r="G26">
-        <v>40.894462665462697</v>
-      </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26">
-        <v>37.292229295589102</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <v>8.8086091247652494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>91.277782198022294</v>
-      </c>
-      <c r="G27">
-        <v>16924.241736772499</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27">
-        <v>12863.129153305899</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <v>23.995831817048501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>9.6195465858786093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>39.041568998045499</v>
-      </c>
+        <v>4.0566096063616799</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <f>SUM(G15:G18)</f>
+        <v>14295.375598799774</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(H15:H18)</f>
+        <v>10384.021783870401</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.27360972699855235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>32.723085833136999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>46.112152737500303</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>14328.0986846329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>10430.133936607899</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="6"/>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4">
-        <v>88.587878026745898</v>
+        <v>90.743977909370102</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>75.182412874053497</v>
+        <v>76.111714750552693</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.237237021504399</v>
+        <f>B4</f>
+        <v>90.743977909370102</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>D4</f>
+        <v>76.111714750552693</v>
       </c>
       <c r="I4">
-        <v>25.051940815057399</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>42.059339262132902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <f>100*((H4/G4)-1)</f>
+        <v>-16.124775986161065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5">
-        <v>26.520355347915601</v>
+        <v>25.9951021218695</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5">
-        <v>25.696322511561998</v>
+        <v>25.385346904715099</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>68.740833337786995</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
+        <f t="shared" ref="G5:G6" si="0">B5</f>
+        <v>25.9951021218695</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="1">D5</f>
+        <v>25.385346904715099</v>
       </c>
       <c r="I5">
-        <v>75.904394639599403</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>-10.421115011235299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <f t="shared" ref="I5:I7" si="2">100*((H5/G5)-1)</f>
+        <v>-2.3456542478493159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6">
-        <v>12914.708076434201</v>
+        <v>13007.9604444051</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6">
-        <v>8116.7514064812303</v>
+        <v>8182.6686607891397</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>18.392774725867501</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13007.9604444051</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8182.6686607891397</v>
       </c>
       <c r="I6">
-        <v>17.330958981378</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6">
-        <v>5.7730046733853904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>-37.094914335255261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7">
-        <v>217.031065933788</v>
+        <v>2.7619763446400101</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7">
-        <v>218.20301261161501</v>
+        <v>1.8136451676974199</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>10506.5590691739</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
+        <f>B7+B8</f>
+        <v>10.40743648439901</v>
+      </c>
+      <c r="H7">
+        <f>D7+D8</f>
+        <v>24.22004941565082</v>
       </c>
       <c r="I7">
-        <v>6305.9941168069599</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>39.980405808513801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <f t="shared" si="2"/>
+        <v>132.71868583543355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8">
-        <v>6.60831293019789</v>
+        <v>7.6454601397589999</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8">
-        <v>6.3047332517130901</v>
+        <v>22.4064042479534</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>387.91459798194597</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
+        <f>B9</f>
+        <v>13135.106960920701</v>
+      </c>
+      <c r="H8">
+        <f>D9</f>
+        <v>8308.3857718600593</v>
       </c>
       <c r="I8">
-        <v>301.37669421923698</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>22.308493728492301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <f>100*((H8/G8)-1)</f>
+        <v>-36.746721617273479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9">
-        <v>13253.455688672901</v>
+        <v>13135.106960920701</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>8442.1378877301795</v>
-      </c>
-      <c r="G9">
-        <v>8.9990351114659806</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>0.462568345650822</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9">
-        <v>94.859800635054199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="G10">
-        <v>5.0194558271609298</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>0.77186132351058001</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>84.622609500138694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="G11">
-        <v>8.3711273779931901</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>7.58500814896479</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>9.3908406064280303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8308.3857718600593</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>3.57809750508962E-3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
-        <v>3.5780975050895502E-3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14">
-        <v>120.75056862611299</v>
+        <v>124.089837064118</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>99.284527603111599</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14">
-        <v>6734.4846994753698</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>102.41393567405299</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>B14</f>
+        <v>124.089837064118</v>
+      </c>
+      <c r="H14" s="10">
+        <f>D14</f>
+        <v>102.41393567405299</v>
+      </c>
+      <c r="I14" s="12">
+        <f>((H14/G14)-1)</f>
+        <v>-0.17467910267997966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15">
-        <v>35.174945849624102</v>
+        <v>34.5163581887766</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>34.929094238832903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34.420818587428499</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15:G16" si="3">B15</f>
+        <v>34.5163581887766</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" ref="H15:H16" si="4">D15</f>
+        <v>34.420818587428499</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" ref="I15:I18" si="5">((H15/G15)-1)</f>
+        <v>-2.767951381938305E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
-        <v>16451.573980179401</v>
+        <v>16608.429094285199</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>12412.1363326714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12558.834192018199</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="3"/>
+        <v>16608.429094285199</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="4"/>
+        <v>12558.834192018199</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.24382769010107197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
-        <v>303.236113574461</v>
+        <v>3.7458423968538499</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>303.90985292019002</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.3544569083529199</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10">
+        <f>B17+B18</f>
+        <v>39.446955199612653</v>
+      </c>
+      <c r="H17" s="10">
+        <f>D17+D18</f>
+        <v>56.872557622500224</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="5"/>
+        <v>0.44174771752874564</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
-        <v>8.4024478056779692</v>
+        <v>35.7011128027588</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>7.9496228689161601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>54.518100714147302</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <f>B19</f>
+        <v>16806.482244737701</v>
+      </c>
+      <c r="H18" s="11">
+        <f>D19</f>
+        <v>12752.541503902199</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.24121292497749414</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
-        <v>16919.138056035201</v>
+        <v>16806.482244737701</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19">
-        <v>12858.209430302501</v>
-      </c>
-      <c r="G19">
-        <v>60.7500285855238</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>41.638620292408604</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>31.459093498548999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="G20">
-        <v>92.937661371401006</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>94.063839918777802</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>-1.21175692475883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="G21">
-        <v>24.553825325586999</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>24.2883959345953</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>1.08101034145236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>13482.7731943338</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22">
-        <v>9724.3055391800408</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>27.876072681644601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="G23">
-        <v>513.83482066501006</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>403.41143978649598</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>21.4900540869541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>15.132392209061701</v>
-      </c>
-      <c r="G24">
-        <v>15.441339627235701</v>
-      </c>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>2.06844627751369</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>86.604489458509605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>3.10717117302254</v>
-      </c>
-      <c r="G25">
-        <v>11.130242021500001</v>
-      </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>3.2408269710428699</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <v>70.882690917388302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>37.151104318865201</v>
-      </c>
-      <c r="G26">
-        <v>16.314835149016499</v>
-      </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26">
-        <v>12.273532609293801</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <v>24.770722491587001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>-0.539990287927128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27">
-        <v>3.7651775832948401E-3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>4.5939059135280802</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28">
-        <v>3.7651775832947699E-3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>36.3023645603215</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29">
-        <v>10305.298171325299</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>17.777175931541599</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>0.69893955726961798</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36">
-        <v>24.5535026154615</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>-0.22218308294035299</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>5.3892026137408298</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>24.0019829159334</v>
-      </c>
+        <v>12752.541503902199</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>48.012705717838301</v>
       </c>
@@ -5950,26 +5522,24 @@
       <c r="D4">
         <v>26.9989596466941</v>
       </c>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
       <c r="G4">
+        <f>B4</f>
         <v>48.012705717838301</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>D4</f>
+        <v>26.9989596466941</v>
       </c>
       <c r="I4">
-        <v>26.9989596466941</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>43.767052401999699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <f>100*((H4/G4)-1)</f>
+        <v>-43.767052401999706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>11.173622664239</v>
       </c>
@@ -5979,113 +5549,105 @@
       <c r="D5">
         <v>17.250556149698301</v>
       </c>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
       <c r="G5">
-        <v>11.173622664239</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
+        <f>B5+B6</f>
+        <v>19.80276004914279</v>
+      </c>
+      <c r="H5">
+        <f>D5+D6</f>
+        <v>25.935972584517003</v>
       </c>
       <c r="I5">
-        <v>17.250556149698301</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>-54.386421199889199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <f t="shared" ref="I5:I7" si="0">100*((H5/G5)-1)</f>
+        <v>30.971503568966916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6">
-        <v>8.2497234164995294</v>
+        <v>8.6291373849037907</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6">
-        <v>8.3139951371078595</v>
+        <v>8.6854164348187002</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>8.2497234164995294</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+        <f>B7</f>
+        <v>2900.5765198664499</v>
+      </c>
+      <c r="H6">
+        <f>D7</f>
+        <v>1839.35038723757</v>
       </c>
       <c r="I6">
-        <v>8.3139951371078595</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6">
-        <v>-0.77907727766710599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>-36.586731132945303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7">
-        <v>2901.4565027231301</v>
+        <v>2900.5765198664499</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7">
-        <v>1844.2761896305601</v>
+        <v>1839.35038723757</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>2901.4565027231301</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
+        <f>B8+B9+B10</f>
+        <v>39.991418759278005</v>
+      </c>
+      <c r="H7">
+        <f>D8+D9+D10</f>
+        <v>44.864493961154999</v>
       </c>
       <c r="I7">
-        <v>1844.2761896305601</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>36.436193756492898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>12.18530212996367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8">
-        <v>11.2475550347444</v>
+        <v>11.8129270487665</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8">
-        <v>13.4498160234113</v>
+        <v>16.6939492652021</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>11.2475550347444</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
+        <f>B11</f>
+        <v>3008.38340439271</v>
+      </c>
+      <c r="H8">
+        <f>D11</f>
+        <v>1937.14981342993</v>
       </c>
       <c r="I8">
-        <v>13.4498160234113</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>-19.579908538913099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <f>100*((H8/G8)-1)</f>
+        <v>-35.608280161318916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>15.917350085189501</v>
       </c>
@@ -6095,26 +5657,9 @@
       <c r="D9">
         <v>13.704121751261599</v>
       </c>
-      <c r="G9">
-        <v>15.917350085189501</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>13.704121751261599</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9">
-        <v>13.9045024585297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10">
         <v>12.261141625322001</v>
       </c>
@@ -6124,75 +5669,51 @@
       <c r="D10">
         <v>14.466422944691301</v>
       </c>
-      <c r="G10">
-        <v>12.261141625322001</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>14.466422944691301</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>-17.9859379065886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11">
-        <v>3008.3186012669598</v>
+        <v>3008.38340439271</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11">
-        <v>1938.4600612834299</v>
-      </c>
-      <c r="G11">
-        <v>3008.3186012669598</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>1938.4600612834299</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>35.563338920716603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1937.14981342993</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
         <v>66.248256436440101</v>
       </c>
@@ -6202,26 +5723,24 @@
       <c r="D16">
         <v>43.5282630245161</v>
       </c>
-      <c r="G16">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>B16</f>
         <v>66.248256436440101</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="10">
+        <f>D16</f>
         <v>43.5282630245161</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>34.295232258258899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="I16" s="12">
+        <f>((H16/G16)-1)</f>
+        <v>-0.34295232258258779</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>14.3050863086983</v>
       </c>
@@ -6231,113 +5750,105 @@
       <c r="D17">
         <v>14.993531787857901</v>
       </c>
-      <c r="G17">
-        <v>14.3050863086983</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17">
-        <v>14.993531787857901</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17">
-        <v>-4.8125922787407802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="10">
+        <f>B17+B18</f>
+        <v>25.007347276605302</v>
+      </c>
+      <c r="H17" s="10">
+        <f>D17+D18</f>
+        <v>25.719039196703498</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:I20" si="1">((H17/G17)-1)</f>
+        <v>2.8459312866182973E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
-        <v>10.2295685014799</v>
+        <v>10.702260967907</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>10.2436559415608</v>
-      </c>
-      <c r="G18">
-        <v>10.2295685014799</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18">
-        <v>10.2436559415608</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18">
-        <v>-0.13771294535862599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10.725507408845599</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10">
+        <f>B19</f>
+        <v>3726.2018823028902</v>
+      </c>
+      <c r="H18" s="10">
+        <f>D19</f>
+        <v>2839.7783376861698</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.23788929655869517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
-        <v>3727.3709297639898</v>
+        <v>3726.2018823028902</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2841.5666053371501</v>
-      </c>
-      <c r="G19">
-        <v>3727.3709297639898</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>2841.5666053371501</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>23.764855741978199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2839.7783376861698</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10">
+        <f>B20+B21</f>
+        <v>36.307266812242204</v>
+      </c>
+      <c r="H19" s="10">
+        <f>D20+D21</f>
+        <v>31.680621328512199</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.12743028847795224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
-        <v>14.7079223907488</v>
+        <v>15.410425380621501</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20">
-        <v>13.4697342603379</v>
-      </c>
-      <c r="G20">
-        <v>14.7079223907488</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>13.4697342603379</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>8.4185114492425903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.456043441368699</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G16:G19)</f>
+        <v>3853.7647528281777</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H16:H19)</f>
+        <v>2940.7062612359018</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.23692636944748791</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>20.8968414316207</v>
       </c>
@@ -6347,26 +5858,9 @@
       <c r="D21">
         <v>17.2245778871435</v>
       </c>
-      <c r="G21">
-        <v>20.8968414316207</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>17.2245778871435</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>17.5732947799487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>38.272207601993998</v>
       </c>
@@ -6376,260 +5870,596 @@
       <c r="D22">
         <v>40.911188090904197</v>
       </c>
-      <c r="G22">
-        <v>38.272207601993998</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22">
-        <v>40.911188090904197</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>-6.8952920520130503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23">
-        <v>3892.0308124349699</v>
+        <v>3892.03696043017</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23">
-        <v>2981.9375563294702</v>
-      </c>
-      <c r="G23">
-        <v>3892.0308124349699</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>2981.9375563294702</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>23.383505937254501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>43.767052401999699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>-54.386421199889199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30">
-        <v>-0.77907727766710599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31">
-        <v>36.436193756492898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32">
-        <v>-19.579908538913099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33">
-        <v>13.9045024585297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34">
-        <v>-17.9859379065886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>35.563338920716603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>34.295232258258899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>-4.8125922787407802</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>-0.13771294535862599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43">
-        <v>23.764855741978199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44">
-        <v>8.4185114492425903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45">
-        <v>17.5732947799487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46">
-        <v>-6.8952920520130503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>23.383505937254501</v>
-      </c>
+        <v>2981.6174493268099</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4">
+        <v>17.394062079219999</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10.0916045808279</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>B4</f>
+        <v>17.394062079219999</v>
+      </c>
+      <c r="H4">
+        <f>D4</f>
+        <v>10.0916045808279</v>
+      </c>
+      <c r="I4">
+        <f>100*((H4/G4)-1)</f>
+        <v>-41.982473473611769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>40.562918370685701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>47.5443754198295</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <f>B5+B6</f>
+        <v>68.843027345025206</v>
+      </c>
+      <c r="H5">
+        <f>D5+D6</f>
+        <v>75.838541365579701</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I7" si="0">100*((H5/G5)-1)</f>
+        <v>10.161543282364116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>28.280108974339502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>28.294165945750201</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <f>B7</f>
+        <v>94.3709368992847</v>
+      </c>
+      <c r="H6">
+        <f>D7</f>
+        <v>64.556424797333307</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-31.592896162268978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>94.3709368992847</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>64.556424797333307</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <f>B8+B9+B10</f>
+        <v>41.287511566016434</v>
+      </c>
+      <c r="H7">
+        <f>D8+D9+D10</f>
+        <v>43.998733349541247</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6.5666873121905667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>40.287689038378701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>43.003088847005998</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G4:G7)</f>
+        <v>221.89553788954632</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H4:H7)</f>
+        <v>194.48530409328217</v>
+      </c>
+      <c r="I8">
+        <f>100*((H8/G8)-1)</f>
+        <v>-12.352764754516265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>0.44693550966704898</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.44034295887225799</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>0.55288701797068396</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0.555301543662992</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <v>7.6986981498102001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>22.086896087865401</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>229.59423603935701</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>216.57220018114799</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16">
+        <v>24.626114138781201</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>16.893505156614101</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>53.209857606824499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>54.910946065489298</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f>B16</f>
+        <v>24.626114138781201</v>
+      </c>
+      <c r="H17" s="10">
+        <f>D16</f>
+        <v>16.893505156614101</v>
+      </c>
+      <c r="I17" s="12">
+        <f>((H17/G17)-1)</f>
+        <v>-0.3140003712558852</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>36.529551416184297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>36.536753584013397</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="10">
+        <f>B17+B18</f>
+        <v>89.73940902300879</v>
+      </c>
+      <c r="H18" s="10">
+        <f>D17+D18</f>
+        <v>91.447699649502695</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" ref="I18:I21" si="1">((H18/G18)-1)</f>
+        <v>1.9036125210674326E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>122.44205034861901</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>97.386326573772905</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10">
+        <f>B19</f>
+        <v>122.44205034861901</v>
+      </c>
+      <c r="H19" s="10">
+        <f>D19</f>
+        <v>97.386326573772905</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.2046333241195083</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>52.7138153750643</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>56.226042377950797</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10">
+        <f>B20+B21+B22</f>
+        <v>54.001622609508544</v>
+      </c>
+      <c r="H20" s="10">
+        <f>D20+D21+D22</f>
+        <v>57.530166176385315</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>6.5341435985952545E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>0.57412009696045196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>0.57773605097509795</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11">
+        <f>SUM(G17:G20)</f>
+        <v>290.80919611991754</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(H17:H20)</f>
+        <v>263.25769755627499</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="1"/>
+        <v>-9.4740809201513287E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>0.71368713748379498</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>0.72638774745941903</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>27.304571051796898</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>45.806088617262702</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>318.11376717171498</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>309.06378617353801</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D17" sqref="A12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" t="s">
@@ -6895,7 +6725,34 @@
     <row r="11" spans="1:15">
       <c r="D11" s="1"/>
     </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="13" spans="1:15">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10.2773689376482</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.2822829115338701</v>
+      </c>
+      <c r="D13" s="12">
+        <f>C13/B13</f>
+        <v>0.61127346402059424</v>
+      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
@@ -6909,7 +6766,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.6786557270081099</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.0474309294178099</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" ref="D13:D16" si="1">C14/B14</f>
+        <v>0.6239700687672628</v>
+      </c>
+    </row>
     <row r="15" spans="1:15">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
+        <v>399.07159617236698</v>
+      </c>
+      <c r="C15" s="7">
+        <v>245.89278461090899</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.61616207961015346</v>
+      </c>
       <c r="I15">
         <v>9.8461892259614903</v>
       </c>
@@ -6930,6 +6815,19 @@
       </c>
     </row>
     <row r="16" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.3045918833761094</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.4171913154808875</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0261579808621639</v>
+      </c>
       <c r="I16">
         <v>1.61700734253365</v>
       </c>
@@ -6949,7 +6847,23 @@
         <v>38.359602376872999</v>
       </c>
     </row>
-    <row r="17" spans="9:15">
+    <row r="17" spans="1:15">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(B13:B16)</f>
+        <v>415.33221272039941</v>
+      </c>
+      <c r="C17" s="8">
+        <f>SUM(C13:C16)</f>
+        <v>257.63968976734157</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17/B17</f>
+        <v>0.62032195403245538</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="I17">
         <v>383.65287528670302</v>
       </c>
@@ -6969,7 +6883,7 @@
         <v>39.0997185688869</v>
       </c>
     </row>
-    <row r="18" spans="9:15">
+    <row r="18" spans="1:15">
       <c r="I18">
         <v>0.15275599185576499</v>
       </c>
@@ -6989,7 +6903,7 @@
         <v>42.929812318502499</v>
       </c>
     </row>
-    <row r="19" spans="9:15">
+    <row r="19" spans="1:15">
       <c r="I19">
         <v>4.0992379503754703</v>
       </c>
@@ -7009,7 +6923,7 @@
         <v>-3.9784216383072599</v>
       </c>
     </row>
-    <row r="20" spans="9:15">
+    <row r="20" spans="1:15">
       <c r="I20">
         <v>16.098590877214299</v>
       </c>
@@ -7029,7 +6943,7 @@
         <v>-14.790960084062799</v>
       </c>
     </row>
-    <row r="21" spans="9:15">
+    <row r="21" spans="1:15">
       <c r="I21">
         <v>415.46665667464401</v>
       </c>
@@ -7157,5 +7071,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Results/IODVS/EnergyAnalysis.xlsx
+++ b/Documentation/Results/IODVS/EnergyAnalysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmoore\Documents\PEGMA\Documentation\Results\IODVS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12960" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Kingston" sheetId="11" r:id="rId6"/>
     <sheet name="HIH6130" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="43">
   <si>
     <t>Idle</t>
   </si>
@@ -125,6 +130,36 @@
   <si>
     <t>Energy Usage</t>
   </si>
+  <si>
+    <t>Raw Analysis</t>
+  </si>
+  <si>
+    <t>No Final Idle</t>
+  </si>
+  <si>
+    <t>No Initial Idle (duty cycle = 100%)</t>
+  </si>
+  <si>
+    <t>Duty Cycle</t>
+  </si>
+  <si>
+    <t>Op Time</t>
+  </si>
+  <si>
+    <t>Op per ms</t>
+  </si>
+  <si>
+    <t>idle per ms</t>
+  </si>
+  <si>
+    <t>Total No Final</t>
+  </si>
+  <si>
+    <t>Total No Idle</t>
+  </si>
+  <si>
+    <t>Total 100%</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,6 +238,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -219,7 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,6 +282,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -257,6 +308,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -584,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K35" sqref="K35:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -597,12 +651,12 @@
     <col min="4" max="4" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -616,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +687,7 @@
         <v>-0.65913440881215568</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +705,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -669,7 +723,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -687,7 +741,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -705,7 +759,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -723,32 +777,38 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:23">
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13">
         <v>7.4358000000000004</v>
       </c>
@@ -761,8 +821,44 @@
       <c r="E13">
         <v>0.66859999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14">
         <v>10.621</v>
       </c>
@@ -778,26 +874,44 @@
       <c r="J14" t="s">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>6.9557765452600497</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="L14" s="4">
         <v>1.3364278468437001</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>80.786791551629094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14" s="1">
+        <f>L14/K14-1</f>
+        <v>-0.80786791551629178</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>6.9557765452600497</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1.3364278468437001</v>
+      </c>
+      <c r="R14" s="1">
+        <f>Q14/P14-1</f>
+        <v>-0.80786791551629178</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="4">
+        <v>9.4872409268176199</v>
+      </c>
+      <c r="V14" s="4">
+        <v>24.824069928613</v>
+      </c>
+      <c r="W14" s="1">
+        <f>V14/U14-1</f>
+        <v>1.616574209519936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15">
         <v>47.5518</v>
       </c>
@@ -813,26 +927,44 @@
       <c r="J15" t="s">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>9.4872409268176199</v>
       </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="4">
         <v>24.824069928613</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15">
-        <v>-161.657420951993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15" s="1">
+        <f t="shared" ref="M15:M29" si="3">L15/K15-1</f>
+        <v>1.616574209519936</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>9.4872409268176199</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>24.824069928613</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ref="R15:R19" si="4">Q15/P15-1</f>
+        <v>1.616574209519936</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>44.566361801095603</v>
+      </c>
+      <c r="V15" s="4">
+        <v>8.0283284414456109</v>
+      </c>
+      <c r="W15" s="1">
+        <f>V15/U15-1</f>
+        <v>-0.81985676826668308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16">
         <v>13.463699999999999</v>
       </c>
@@ -848,26 +980,44 @@
       <c r="J16" t="s">
         <v>3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>44.566361801095603</v>
       </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="4">
         <v>8.0283284414456109</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16">
-        <v>81.985676826668296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.81985676826668308</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <v>44.566361801095603</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>8.0283284414456109</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.81985676826668308</v>
+      </c>
+      <c r="T16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4">
+        <v>11.521925472764099</v>
+      </c>
+      <c r="V16" s="4">
+        <v>28.130789472917002</v>
+      </c>
+      <c r="W16" s="1">
+        <f>V16/U16-1</f>
+        <v>1.4415007317495214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="B17">
         <v>4.9633000000000003</v>
       </c>
@@ -883,26 +1033,46 @@
       <c r="J17" t="s">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>11.521925472764099</v>
       </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="4">
         <v>28.130789472917002</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17">
-        <v>-144.15007317495099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4415007317495214</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="4">
+        <v>11.521925472764099</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>28.130789472917002</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4415007317495214</v>
+      </c>
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="4">
+        <f>SUM(U14:U16)</f>
+        <v>65.575528200677326</v>
+      </c>
+      <c r="V17" s="4">
+        <f>SUM(V14:V16)</f>
+        <v>60.98318784297561</v>
+      </c>
+      <c r="W17" s="1">
+        <f>(V17-U17)/U17</f>
+        <v>-7.0031313261374253E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="B18">
         <v>84.035600000000002</v>
       </c>
@@ -918,71 +1088,96 @@
       <c r="J18" t="s">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>4.6164599013504501</v>
       </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="4">
         <v>2.94171031261321</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18">
-        <v>36.277789139841197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36277789139841254</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4">
+        <f>SUM(P14:P17)</f>
+        <v>72.531304745937376</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>SUM(Q14:Q17)</f>
+        <v>62.319615689819315</v>
+      </c>
+      <c r="R18" s="1">
+        <f>(Q18-P18)/P18</f>
+        <v>-0.14079009183534696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="J19" t="s">
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>77.1477646472879</v>
       </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="4">
         <v>65.261326002432497</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>15.407366239578201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.15407366239578102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1"/>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="1"/>
+      <c r="T21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>34</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="B23">
         <v>10.240399999999999</v>
       </c>
@@ -995,8 +1190,44 @@
       <c r="E23">
         <v>1.7076</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="B24">
         <v>13.7919</v>
       </c>
@@ -1009,26 +1240,47 @@
       <c r="E24">
         <v>17.6371</v>
       </c>
-      <c r="K24">
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <v>9.8417995214909908</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L24" s="4">
         <v>3.27742253921752</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>100</v>
-      </c>
-      <c r="Q24">
-        <v>66.698950409822999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.66698950409822977</v>
+      </c>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>9.8417995214909908</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>3.27742253921752</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24:R29" si="5">Q24/P24-1</f>
+        <v>-0.66698950409822977</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="4">
+        <v>13.2776663066194</v>
+      </c>
+      <c r="V24" s="4">
+        <v>17.076578064595601</v>
+      </c>
+      <c r="W24" s="1">
+        <f>V24/U24-1</f>
+        <v>0.28611291097760949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="B25">
         <v>64.591300000000004</v>
       </c>
@@ -1041,26 +1293,47 @@
       <c r="E25">
         <v>32.230600000000003</v>
       </c>
-      <c r="K25">
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4">
         <v>13.2776663066194</v>
       </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="4">
         <v>17.076578064595601</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25">
-        <v>-28.611291097761001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28611291097760949</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>13.2776663066194</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>17.076578064595601</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28611291097760949</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="4">
+        <v>62.027458475111303</v>
+      </c>
+      <c r="V25" s="4">
+        <v>31.826609238634799</v>
+      </c>
+      <c r="W25" s="1">
+        <f>V25/U25-1</f>
+        <v>-0.48689483623764274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="B26">
         <v>17.584</v>
       </c>
@@ -1073,26 +1346,47 @@
       <c r="E26">
         <v>25.5242</v>
       </c>
-      <c r="K26">
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4">
         <v>62.027458475111303</v>
       </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26">
+      <c r="L26" s="4">
         <v>31.826609238634799</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26">
-        <v>48.689483623764197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.48689483623764274</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="4">
+        <v>62.027458475111303</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>31.826609238634799</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.48689483623764274</v>
+      </c>
+      <c r="T26" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="4">
+        <v>16.118716056020698</v>
+      </c>
+      <c r="V26" s="4">
+        <v>22.075720143458501</v>
+      </c>
+      <c r="W26" s="1">
+        <f>V26/U26-1</f>
+        <v>0.36957063247061339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="B27">
         <v>8.8134999999999994</v>
       </c>
@@ -1105,26 +1399,49 @@
       <c r="E27">
         <v>10.7059</v>
       </c>
-      <c r="K27">
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="4">
         <v>16.118716056020698</v>
       </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27">
+      <c r="L27" s="4">
         <v>22.075720143458501</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27">
-        <v>-36.957063247061399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="M27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36957063247061339</v>
+      </c>
+      <c r="O27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="4">
+        <v>16.118716056020698</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>22.075720143458501</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36957063247061339</v>
+      </c>
+      <c r="T27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="4">
+        <f>SUM(U24:U26)</f>
+        <v>91.423840837751399</v>
+      </c>
+      <c r="V27" s="4">
+        <f>SUM(V24:V26)</f>
+        <v>70.978907446688893</v>
+      </c>
+      <c r="W27" s="1">
+        <f>(V27-U27)/U27</f>
+        <v>-0.2236280296661988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="B28">
         <v>115.0211</v>
       </c>
@@ -1137,54 +1454,94 @@
       <c r="E28">
         <v>87.805400000000006</v>
       </c>
-      <c r="K28">
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <v>6.5271032278378396</v>
       </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28">
+      <c r="L28" s="4">
         <v>7.6017464550894802</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28">
-        <v>-16.464320997227802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="K29">
+      <c r="M28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16464320997227833</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5">
+        <f>SUM(P24:P27)</f>
+        <v>101.2656403592424</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>SUM(Q24:Q27)</f>
+        <v>74.256329985906419</v>
+      </c>
+      <c r="R28" s="3">
+        <f>(Q28-P28)/P28</f>
+        <v>-0.2667174204154516</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4">
         <v>107.79274358708</v>
       </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="4">
         <v>81.858076440995902</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29">
-        <v>24.059752338647002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="M29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.24059752338646867</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="1"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="N31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <f>U27/$L33</f>
+        <v>10.454412903116227</v>
+      </c>
+      <c r="O32">
+        <f>V27/$L33</f>
+        <v>8.1165131442754603</v>
+      </c>
+      <c r="P32" s="1">
+        <f>O32/N32-1</f>
+        <v>-0.22362802966619877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1197,8 +1554,30 @@
       <c r="E33">
         <v>91.007900000000006</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <f>9.745-1</f>
+        <v>8.7449999999999992</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <f>P24/$L33</f>
+        <v>1.1254201854192101</v>
+      </c>
+      <c r="O33">
+        <f>Q24/$L33</f>
+        <v>0.37477673404431333</v>
+      </c>
+      <c r="P33" s="1">
+        <f>O33/N33-1</f>
+        <v>-0.66698950409822977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1211,8 +1590,20 @@
       <c r="E34">
         <v>-167.59010000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1225,8 +1616,23 @@
       <c r="E35">
         <v>87.663399999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f>(($J35*$N$32)+((1-$J35)*$N$33))*$L$33</f>
+        <v>9.8417995214909908</v>
+      </c>
+      <c r="L35" s="4">
+        <f>(($J35*$O$32)+((1-$J35)*$O$33))*$L$33</f>
+        <v>3.2774225392175196</v>
+      </c>
+      <c r="M35" s="1">
+        <f>L35/K35-1</f>
+        <v>-0.66698950409822977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1239,8 +1645,23 @@
       <c r="E36">
         <v>-153.87729999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="J36" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" ref="K36:K39" si="6">(($J36*$N$32)+((1-$J36)*$N$33))*$L$33</f>
+        <v>30.237309850556091</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" ref="L36:L39" si="7">(($J36*$O$32)+((1-$J36)*$O$33))*$L$33</f>
+        <v>20.202793766085364</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" ref="M36:M39" si="8">L36/K36-1</f>
+        <v>-0.33185875774217344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37">
         <v>0</v>
       </c>
@@ -1253,8 +1674,23 @@
       <c r="E37">
         <v>38.455100000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="J37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="6"/>
+        <v>50.632820179621199</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="7"/>
+        <v>37.128164992953209</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.26671742041545166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="B38">
         <v>0</v>
       </c>
@@ -1267,8 +1703,40 @@
       <c r="E38">
         <v>14.0939</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="J38" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="6"/>
+        <v>71.028330508686281</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="7"/>
+        <v>54.053536219821055</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.23898624911068866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="6"/>
+        <v>91.423840837751399</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="7"/>
+        <v>70.978907446688893</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.22362802966619877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:16">
       <c r="B43">
         <v>0</v>
       </c>
@@ -1290,7 +1758,7 @@
         <v>83.3249</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:16">
       <c r="B44">
         <v>0</v>
       </c>
@@ -1304,7 +1772,7 @@
         <v>-27.88</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:16">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1318,7 +1786,7 @@
         <v>50.1008</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:16">
       <c r="B46">
         <v>0</v>
       </c>
@@ -1332,7 +1800,7 @@
         <v>-45.155999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:16">
       <c r="B47">
         <v>0</v>
       </c>
@@ -1346,7 +1814,7 @@
         <v>-21.472000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:16">
       <c r="B48">
         <v>0</v>
       </c>
@@ -1373,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+      <selection activeCell="B44" sqref="B44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1387,12 +1855,12 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:28">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1402,1675 +1870,2189 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B38" si="0">B48</f>
-        <v>10.7328959439632</v>
-      </c>
-      <c r="C3">
+        <v>10.265882601842099</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C38" si="1">E48</f>
-        <v>5.6265775954835702</v>
+        <v>5.2706638230191301</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D43" si="2">(C3-B3)/(ABS(B3))</f>
-        <v>-0.4757633331339356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <f t="shared" ref="D3:D42" si="2">(C3-B3)/(ABS(B3))</f>
+        <v>-0.48658444408146967</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>71.5126143304321</v>
-      </c>
-      <c r="C4">
+        <v>89.845229400050997</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>72.362691718504294</v>
+        <v>90.857735415003503</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>1.1887097067159581E-2</v>
-      </c>
-      <c r="I4">
+        <v>1.1269446599597999E-2</v>
+      </c>
+      <c r="N4">
         <v>7.2541089663834999</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2.7840142623096198</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>100</v>
       </c>
-      <c r="P4">
+      <c r="U4">
         <v>100</v>
       </c>
-      <c r="Q4">
+      <c r="V4">
         <v>61.6215544154201</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>2.4706148723044699</v>
-      </c>
-      <c r="C5">
+        <v>2.35505368369525</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>2.4674010805812698</v>
+        <v>2.3414275397686399</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3008064345546306E-3</v>
-      </c>
-      <c r="I5">
+        <v>-5.7859164829014396E-3</v>
+      </c>
+      <c r="N5">
         <v>62.582005475026598</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5">
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
         <v>76.685734163829295</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
         <v>-22.536396176103299</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Y5">
+        <v>7.2541089663834999</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>2.7840142623096198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>1794.4411317443801</v>
-      </c>
-      <c r="C6">
+        <v>1725.52550583539</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>978.238711043075</v>
+        <v>925.22375788085196</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>-0.45485048590469668</v>
-      </c>
-      <c r="I6">
+        <v>-0.46380174923411677</v>
+      </c>
+      <c r="N6">
         <v>1.8313505884044501</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6">
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
         <v>1.86345747575527</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6">
         <v>-1.75318082480278</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Y6">
+        <v>62.582005475026598</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6">
+        <v>76.685734163829295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>5.5638378891337696</v>
-      </c>
-      <c r="C7">
+        <v>4.4587791520769704</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>6.6967803152293097</v>
+        <v>6.0995060232773204</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>0.20362606687520279</v>
-      </c>
-      <c r="I7">
+        <v>0.36797670735409116</v>
+      </c>
+      <c r="N7">
         <v>1252.3258050074801</v>
       </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7">
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7">
         <v>482.29240471235698</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
         <v>61.488264253288698</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Y7">
+        <v>1.8313505884044501</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7">
+        <v>1.86345747575527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>40.227479633915003</v>
-      </c>
-      <c r="C8">
+        <v>37.962756072977598</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>25.2951241925076</v>
+        <v>23.226865524020099</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>-0.37119788704878803</v>
-      </c>
-      <c r="I8">
+        <v>-0.38816703720430629</v>
+      </c>
+      <c r="N8">
         <v>3.3282429698069</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8">
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8">
         <v>15.1018503367618</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8">
         <v>-353.74843344559002</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Y8">
+        <v>1252.3258050074801</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8">
+        <v>482.29240471235698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>6.3484558693051003</v>
-      </c>
-      <c r="C9">
+        <v>4.9670171157828999</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>6.81498709414437</v>
+        <v>5.8283636808232302</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>7.3487354160396173E-2</v>
-      </c>
-      <c r="I9">
+        <v>0.17341324681635711</v>
+      </c>
+      <c r="N9">
         <v>27.3527413472858</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9">
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9">
         <v>6.8601177652610899</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
         <v>74.919816342496802</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Y9">
+        <v>3.3282429698069</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9">
+        <v>15.1018503367618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>35.368208023467602</v>
-      </c>
-      <c r="C10">
+        <v>34.049753192000097</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>22.4143988649449</v>
+        <v>21.239937073601901</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36625573876764006</v>
-      </c>
-      <c r="I10">
+        <v>-0.37620878031526611</v>
+      </c>
+      <c r="N10">
         <v>3.86919741560749</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10">
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10">
         <v>15.0903258415956</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
         <v>-290.01178334102599</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Y10">
+        <v>27.3527413472858</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB10">
+        <v>6.8601177652610899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>5.3985127273913598</v>
-      </c>
-      <c r="C11">
+        <v>4.7912137729325899</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>6.5642534258666396</v>
+        <v>5.1015975077987203</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>0.21593738078275918</v>
-      </c>
-      <c r="I11">
+        <v>6.4781858955993074E-2</v>
+      </c>
+      <c r="N11">
         <v>24.213783143962001</v>
       </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11">
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11">
         <v>5.6127968410529396</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11">
         <v>76.819826923854393</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Y11">
+        <v>3.86919741560749</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11">
+        <v>15.0903258415956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>35.727752166026903</v>
-      </c>
-      <c r="C12">
+        <v>34.370906827445999</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
-        <v>22.824899985721299</v>
+        <v>21.585668713167902</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>-0.3611436879752758</v>
-      </c>
-      <c r="I12">
+        <v>-0.37197849269629324</v>
+      </c>
+      <c r="N12">
         <v>3.70957848113814</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12">
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12">
         <v>12.049505692533099</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12">
         <v>-224.821425232016</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Y12">
+        <v>24.213783143962001</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB12">
+        <v>5.6127968410529396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>6.0306441130110802</v>
-      </c>
-      <c r="C13">
+        <v>5.3695453757378599</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>6.5652373750340898</v>
+        <v>6.1166567481074203</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>8.8646129999551404E-2</v>
-      </c>
-      <c r="I13">
+        <v>0.13913866446596432</v>
+      </c>
+      <c r="N13">
         <v>24.427792111491101</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13">
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13">
         <v>5.9835097486663704</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13">
         <v>75.505319017957106</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Y13">
+        <v>3.70957848113814</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB13">
+        <v>12.049505692533099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>35.349015144250799</v>
-      </c>
-      <c r="C14">
+        <v>34.134708713136199</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>22.3796903638356</v>
+        <v>21.2624500881508</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36689352525071817</v>
-      </c>
-      <c r="I14">
+        <v>-0.37710175684117425</v>
+      </c>
+      <c r="N14">
         <v>3.7776068717897302</v>
       </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14">
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14">
         <v>16.213149963814299</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14">
         <v>-329.19103321444902</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Y14">
+        <v>24.427792111491101</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14">
+        <v>5.9835097486663704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>5.75134787318206</v>
-      </c>
-      <c r="C15">
+        <v>5.0634041700120704</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
-        <v>6.6492313314214204</v>
+        <v>5.1412439460531498</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>0.15611704908793608</v>
-      </c>
-      <c r="I15">
+        <v>1.5373012587477058E-2</v>
+      </c>
+      <c r="N15">
         <v>24.304075626352901</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15">
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15">
         <v>5.6166880356922597</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15">
         <v>76.889933515504396</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Y15">
+        <v>3.7776068717897302</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15">
+        <v>16.213149963814299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>35.747679835966203</v>
-      </c>
-      <c r="C16">
+        <v>34.434179217889998</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>22.733917484848199</v>
+        <v>21.611531887217801</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36404495091244188</v>
-      </c>
-      <c r="I16">
+        <v>-0.37238138448237773</v>
+      </c>
+      <c r="N16">
         <v>4.3550869405533099</v>
       </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16">
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16">
         <v>13.5446976944376</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16">
         <v>-211.00866364603101</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="Y16">
+        <v>24.304075626352901</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16">
+        <v>5.6166880356922597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>5.7663513522972103</v>
-      </c>
-      <c r="C17">
+        <v>4.9767295265503098</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
-        <v>6.29690825290775</v>
+        <v>5.5413275529382204</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>9.2009117758524273E-2</v>
-      </c>
-      <c r="I17">
+        <v>0.11344760115570712</v>
+      </c>
+      <c r="N17">
         <v>24.409618004063798</v>
       </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17">
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
         <v>5.8104240434358196</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17">
         <v>76.196169712821899</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="Y17">
+        <v>4.3550869405533099</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17">
+        <v>13.5446976944376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>35.488825183120902</v>
-      </c>
-      <c r="C18">
+        <v>34.111739005699498</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
-        <v>22.514065866750499</v>
+        <v>21.4687277083253</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36560126319823688</v>
-      </c>
-      <c r="I18">
+        <v>-0.37063520259878169</v>
+      </c>
+      <c r="N18">
         <v>3.4469003170322901</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18">
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18">
         <v>13.3851693036644</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18">
         <v>-288.32481570539602</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="Y18">
+        <v>24.409618004063798</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18">
+        <v>5.8104240434358196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>5.4661075658038101</v>
-      </c>
-      <c r="C19">
+        <v>5.3965559010661801</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>5.7438175343530702</v>
+        <v>5.7402493169096998</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>5.0805800143163098E-2</v>
-      </c>
-      <c r="I19">
+        <v>6.3687548529909099E-2</v>
+      </c>
+      <c r="N19">
         <v>24.502672069805499</v>
       </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19">
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19">
         <v>6.2146298714958599</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19">
         <v>74.6369299895496</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="Y19">
+        <v>3.4469003170322901</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19">
+        <v>13.3851693036644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>35.862522777025298</v>
-      </c>
-      <c r="C20">
+        <v>34.082421829964403</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>22.827678048648</v>
+        <v>21.1604425411285</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36346703240653905</v>
-      </c>
-      <c r="I20">
+        <v>-0.37913911614917067</v>
+      </c>
+      <c r="N20">
         <v>4.09929782966422</v>
       </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20">
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20">
         <v>14.9213104658243</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20">
         <v>-263.99674007210399</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="Y20">
+        <v>24.502672069805499</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB20">
+        <v>6.2146298714958599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>5.1781021221354102</v>
-      </c>
-      <c r="C21">
+        <v>4.5587967267716998</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>5.8227145998409204</v>
+        <v>5.5855800660604098</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>0.12448817394889015</v>
-      </c>
-      <c r="I21">
+        <v>0.22523121797883364</v>
+      </c>
+      <c r="N21">
         <v>24.189403214598201</v>
       </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21">
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21">
         <v>5.5655195536939104</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21">
         <v>76.991910448062896</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Y21">
+        <v>4.09929782966422</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB21">
+        <v>14.9213104658243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>35.464156944071298</v>
-      </c>
-      <c r="C22">
+        <v>34.391163043667198</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>22.578114752471802</v>
+        <v>21.539817091883801</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36335396924622831</v>
-      </c>
-      <c r="I22">
+        <v>-0.37368163255967141</v>
+      </c>
+      <c r="N22">
         <v>3.51323480355058</v>
       </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22">
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22">
         <v>12.731061972642699</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22">
         <v>-262.37435538826901</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="Y22">
+        <v>24.189403214598201</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22">
+        <v>5.5655195536939104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>5.7422702157383299</v>
-      </c>
-      <c r="C23">
+        <v>5.3511440168629596</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
-        <v>5.7639650079024003</v>
+        <v>5.9226377276731599</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>3.7780862531703358E-3</v>
-      </c>
-      <c r="I23">
+        <v>0.10679841712524703</v>
+      </c>
+      <c r="N23">
         <v>24.506695772463001</v>
       </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23">
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
         <v>5.6792238061809099</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23">
         <v>76.825828096489502</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="Y23">
+        <v>3.51323480355058</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB23">
+        <v>12.731061972642699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>35.914913601561302</v>
-      </c>
-      <c r="C24">
+        <v>34.109269751884099</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
-        <v>22.788847596193801</v>
+        <v>21.253167358831998</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>-0.3654767529441274</v>
-      </c>
-      <c r="I24">
+        <v>-0.37690934126028797</v>
+      </c>
+      <c r="N24">
         <v>3.7415533469361102</v>
       </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24">
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24">
         <v>15.415689029965</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24">
         <v>-312.01307586830501</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="Y24">
+        <v>24.506695772463001</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB24">
+        <v>5.6792238061809099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>5.5923028456199599</v>
-      </c>
-      <c r="C25">
+        <v>5.0687285234600203</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
-        <v>6.8432280688244198</v>
+        <v>5.0637757610942504</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>0.22368696004799127</v>
-      </c>
-      <c r="I25">
+        <v>-9.7712125296247959E-4</v>
+      </c>
+      <c r="N25">
         <v>24.257627766171499</v>
       </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25">
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25">
         <v>5.8506189144666703</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25">
         <v>75.881322894130406</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="Y25">
+        <v>3.7415533469361102</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25">
+        <v>15.415689029965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>35.500245858191199</v>
-      </c>
-      <c r="C26">
+        <v>34.395150487087299</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>22.492718489112701</v>
+        <v>21.793308863603698</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36640668408433541</v>
-      </c>
-      <c r="I26">
+        <v>-0.36638425606582564</v>
+      </c>
+      <c r="N26">
         <v>4.3282157285758602</v>
       </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26">
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
         <v>14.396652014908</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26">
         <v>-232.623254424636</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Y26">
+        <v>24.257627766171499</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>5.8506189144666703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>5.4644389703628802</v>
-      </c>
-      <c r="C27">
+        <v>4.99333161938742</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>5.9142964000375899</v>
+        <v>5.1244907385096701</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>8.2324540929923834E-2</v>
-      </c>
-      <c r="I27">
+        <v>2.626685530218012E-2</v>
+      </c>
+      <c r="N27">
         <v>24.404757278507699</v>
       </c>
-      <c r="J27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27">
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
         <v>6.5458158427466504</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27">
         <v>73.178115364780595</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="Y27">
+        <v>4.3282157285758602</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB27">
+        <v>14.396652014908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>35.904369498447799</v>
-      </c>
-      <c r="C28">
+        <v>34.104484969396999</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>22.8666331296103</v>
+        <v>21.591701455174299</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36312394705611362</v>
-      </c>
-      <c r="I28">
+        <v>-0.36689554249098921</v>
+      </c>
+      <c r="N28">
         <v>3.4600240502050701</v>
       </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28">
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28">
         <v>10.618491084438199</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28">
         <v>-206.89067273416401</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="Y28">
+        <v>24.404757278507699</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB28">
+        <v>6.5458158427466504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>5.1843202621932498</v>
-      </c>
-      <c r="C29">
+        <v>5.3746587050600603</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>6.8814182778661603</v>
+        <v>5.9124715257357696</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.32735207893096974</v>
-      </c>
-      <c r="I29">
+        <v>0.10006455296768457</v>
+      </c>
+      <c r="N29">
         <v>24.522361722014502</v>
       </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29">
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29">
         <v>6.0965075974779204</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29">
         <v>75.138986747736894</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="Y29">
+        <v>3.4600240502050701</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB29">
+        <v>10.618491084438199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>35.468367013192101</v>
-      </c>
-      <c r="C30">
+        <v>34.0723778508764</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>22.537598302411499</v>
+        <v>21.1191987117429</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>-0.3645718650078007</v>
-      </c>
-      <c r="I30">
+        <v>-0.38016657351668581</v>
+      </c>
+      <c r="N30">
         <v>4.0572691422375904</v>
       </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30">
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30">
         <v>15.7514735133032</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30">
         <v>-288.228460106944</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="Y30">
+        <v>24.522361722014502</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB30">
+        <v>6.0965075974779204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>5.7227458144297598</v>
-      </c>
-      <c r="C31">
+        <v>4.5779692467634403</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
-        <v>5.1716049830608197</v>
+        <v>5.3396344613905802</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>-9.630706119766011E-2</v>
-      </c>
-      <c r="I31">
+        <v>0.1663762191425</v>
+      </c>
+      <c r="N31">
         <v>24.1454564076491</v>
       </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31">
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31">
         <v>5.47208896177436</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31">
         <v>77.336982704369802</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="Y31">
+        <v>4.0572691422375904</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB31">
+        <v>15.7514735133032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
-        <v>35.908281288395898</v>
-      </c>
-      <c r="C32">
+        <v>34.3860547896792</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
-        <v>22.930253865235901</v>
+        <v>21.469709633947399</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36142157066576086</v>
-      </c>
-      <c r="I32">
+        <v>-0.37562742323113429</v>
+      </c>
+      <c r="N32">
         <v>3.4833793433828202</v>
       </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32">
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32">
         <v>12.7223325727077</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32">
         <v>-265.22960374314601</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="Y32">
+        <v>24.1454564076491</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB32">
+        <v>5.47208896177436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
-        <v>5.6253586253864603</v>
-      </c>
-      <c r="C33">
+        <v>5.3652949169485096</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
-        <v>6.2992339002832498</v>
+        <v>6.1188451332135196</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>0.11979241143056804</v>
-      </c>
-      <c r="I33">
+        <v>0.14044898331396641</v>
+      </c>
+      <c r="N33">
         <v>24.434212387879299</v>
       </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33">
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33">
         <v>5.6786208474647699</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33">
         <v>76.759550267797195</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="Y33">
+        <v>3.4833793433828202</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB33">
+        <v>12.7223325727077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
-        <v>35.496439767826203</v>
-      </c>
-      <c r="C34">
+        <v>34.095244916648902</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>22.836313930590599</v>
+        <v>21.220046742185701</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>-0.35665903172381475</v>
-      </c>
-      <c r="I34">
+        <v>-0.37762445191224209</v>
+      </c>
+      <c r="N34">
         <v>3.776213711254</v>
       </c>
-      <c r="J34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34">
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34">
         <v>15.306961684289901</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34">
         <v>-305.35210278675697</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="Y34">
+        <v>24.434212387879299</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB34">
+        <v>5.6786208474647699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
-        <v>5.4772093098218804</v>
-      </c>
-      <c r="C35">
+        <v>5.0683028041106803</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
-        <v>5.3864788933752399</v>
+        <v>5.37134792653071</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>-1.6565081105069372E-2</v>
-      </c>
-      <c r="I35">
+        <v>5.9792229101671458E-2</v>
+      </c>
+      <c r="N35">
         <v>24.246598722902</v>
       </c>
-      <c r="J35" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35">
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35">
         <v>5.9944758232439499</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35">
         <v>75.277044455798702</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="Y35">
+        <v>3.776213711254</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB35">
+        <v>15.306961684289901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
-        <v>35.926162253986099</v>
-      </c>
-      <c r="C36">
+        <v>34.3796704944982</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
-        <v>22.8904626493857</v>
+        <v>21.855215386956001</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>-0.36284698355594758</v>
-      </c>
-      <c r="I36">
+        <v>-0.36429828812776127</v>
+      </c>
+      <c r="N36">
         <v>4.3307101949267901</v>
       </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36">
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36">
         <v>14.801695290382799</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36">
         <v>-241.78447931524499</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="Y36">
+        <v>24.246598722902</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB36">
+        <v>5.9944758232439499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
-        <v>5.16464759334304</v>
-      </c>
-      <c r="C37">
+        <v>4.9669769612791601</v>
+      </c>
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
-        <v>5.7425907495556698</v>
+        <v>5.1946242330385104</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>0.11190369638338311</v>
-      </c>
-      <c r="I37">
+        <v>4.5832157776049681E-2</v>
+      </c>
+      <c r="N37">
         <v>24.307271443912501</v>
       </c>
-      <c r="J37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37">
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37">
         <v>6.0479943060155898</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37">
         <v>75.118579969080599</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Y37">
+        <v>4.3307101949267901</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB37">
+        <v>14.801695290382799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
-        <v>35.486034318441398</v>
-      </c>
-      <c r="C38">
+        <v>34.100470324510901</v>
+      </c>
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>22.837918638843998</v>
+        <v>21.5212414087238</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>-0.35642516619628078</v>
-      </c>
-      <c r="I38">
+        <v>-0.36888725569117276</v>
+      </c>
+      <c r="N38">
         <v>3.44670099311017</v>
       </c>
-      <c r="J38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38">
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38">
         <v>11.881710311603801</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38">
         <v>-244.72704001173599</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="Y38">
+        <v>24.307271443912501</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB38">
+        <v>6.0479943060155898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <f>SUM(B7,B9,B11,B13,B15,B17,B19,B21,B23,B25,B27,B29,B31,B33,B35,B37)</f>
-        <v>89.476653149155339</v>
-      </c>
-      <c r="C39" s="2">
+        <v>80.348448534802841</v>
+      </c>
+      <c r="C39" s="5">
         <f>SUM(C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37)</f>
-        <v>99.156746209703115</v>
+        <v>89.202352349154339</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="2"/>
-        <v>0.10818568553755921</v>
-      </c>
-      <c r="I39">
+        <v>0.11019383666775394</v>
+      </c>
+      <c r="N39">
         <v>24.4741650836982</v>
       </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39">
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39">
         <v>5.86745112814652</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V39">
         <v>76.025939564922098</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="Y39">
+        <v>3.44670099311017</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB39">
+        <v>11.881710311603801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <f>SUM(B8,B10,B12,B14,B16,B18,B20,B22,B24,B26,B28,B30,B32,B34,B36,B38)</f>
-        <v>574.84045330788604</v>
-      </c>
-      <c r="C40" s="2">
+        <v>551.18035148736283</v>
+      </c>
+      <c r="C40" s="5">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38)</f>
-        <v>365.74863616111242</v>
+        <v>344.91903018866196</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="2"/>
-        <v>-0.36373887040059011</v>
-      </c>
-      <c r="I40">
+        <v>-0.37421747843896047</v>
+      </c>
+      <c r="N40">
         <v>42.429030305404801</v>
       </c>
-      <c r="J40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40">
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40">
         <v>62.710134462238798</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" t="s">
+        <v>24</v>
+      </c>
+      <c r="V40">
         <v>-47.800065216787402</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="Y40">
+        <v>24.4741650836982</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB40">
+        <v>5.86745112814652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>17</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <f>B84</f>
-        <v>83.778830391752507</v>
-      </c>
-      <c r="C41">
+        <v>57.519573127231503</v>
+      </c>
+      <c r="C41" s="4">
         <f>E84</f>
-        <v>52.767153135742099</v>
+        <v>72.452974923056203</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>-0.3701612580528853</v>
-      </c>
-      <c r="I41">
+        <v>0.25962295934972396</v>
+      </c>
+      <c r="N41">
         <v>10.227535577518299</v>
       </c>
-      <c r="J41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41">
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41">
         <v>10.207966072620801</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41">
         <v>0.19134135246171599</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="Y41">
+        <v>42.429030305404801</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB41">
+        <v>62.710134462238798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <f>B85</f>
-        <v>38.923393358619499</v>
-      </c>
-      <c r="C42">
+        <v>34.818872564499102</v>
+      </c>
+      <c r="C42" s="4">
         <f>E85</f>
-        <v>38.204568043735499</v>
+        <v>34.580824348469399</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>-1.8467693920237768E-2</v>
-      </c>
-      <c r="I42">
+        <v>-6.8367583007961762E-3</v>
+      </c>
+      <c r="N42">
         <v>1830.0722801627501</v>
       </c>
-      <c r="J42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42">
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42">
         <v>955.37227100879795</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>24</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42">
         <v>47.795926895093103</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="Y42">
+        <v>10.227535577518299</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB42">
+        <v>10.207966072620801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="2">
-        <f>B86</f>
-        <v>2666.17658709849</v>
-      </c>
-      <c r="C43" s="2">
-        <f>E86</f>
-        <v>1614.57248498794</v>
+      <c r="B43" s="4">
+        <f>SUM(B3:B38)+B41+B42</f>
+        <v>2551.8589172348757</v>
+      </c>
+      <c r="C43" s="4">
+        <f>SUM(C3:C38)+C41+C42</f>
+        <v>1564.8487664679851</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.39442402547498751</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <f>(C43-B43)/(ABS(B43))</f>
+        <v>-0.38678084595538209</v>
+      </c>
+      <c r="Y43">
+        <v>1830.0722801627501</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB43">
+        <v>955.37227100879795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4">
+        <f>SUM(B3:B38)+B41</f>
+        <v>2517.0400446703766</v>
+      </c>
+      <c r="C44" s="4">
+        <f>SUM(C3:C38)+C41</f>
+        <v>1530.2679421195157</v>
+      </c>
+      <c r="D44" s="3">
+        <f>(C44-B44)/(ABS(B44))</f>
+        <v>-0.39203671178782751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4">
+        <f>SUM(B4:B38)+B41</f>
+        <v>2506.7741620685342</v>
+      </c>
+      <c r="C45" s="4">
+        <f>SUM(C4:C38)+C41</f>
+        <v>1524.9972782964967</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D44:D45" si="3">(C45-B45)/(ABS(B45))</f>
+        <v>-0.3916495145944448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" t="s">
+      <c r="M46" t="s">
         <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" t="s">
-        <v>14</v>
       </c>
       <c r="N46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="B48">
-        <v>10.7328959439632</v>
+        <v>10.265882601842099</v>
       </c>
       <c r="C48">
         <v>9.0053131488520108</v>
@@ -3079,36 +4061,48 @@
         <v>7.4786529786229003</v>
       </c>
       <c r="E48">
-        <v>5.6265775954835702</v>
-      </c>
-      <c r="I48">
+        <v>5.2706638230191301</v>
+      </c>
+      <c r="N48">
         <v>10.265882601842099</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>5.2706638230191301</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>100</v>
       </c>
-      <c r="P48">
+      <c r="U48">
         <v>100</v>
       </c>
-      <c r="Q48">
+      <c r="V48">
         <v>48.658444408146998</v>
       </c>
-    </row>
-    <row r="49" spans="2:17">
+      <c r="Y48">
+        <v>10.265882601842099</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>5.2706638230191301</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
       <c r="B49">
-        <v>71.5126143304321</v>
+        <v>89.845229400050997</v>
       </c>
       <c r="C49">
         <v>71.525303147228996</v>
@@ -3117,36 +4111,48 @@
         <v>104.066840976893</v>
       </c>
       <c r="E49">
-        <v>72.362691718504294</v>
-      </c>
-      <c r="I49">
+        <v>90.857735415003503</v>
+      </c>
+      <c r="N49">
         <v>89.845229400050997</v>
       </c>
-      <c r="J49" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49">
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49">
         <v>90.857735415003503</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49">
         <v>-1.12694465995986</v>
       </c>
-    </row>
-    <row r="50" spans="2:17">
+      <c r="Y49">
+        <v>89.845229400050997</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB49">
+        <v>90.857735415003503</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28">
       <c r="B50">
-        <v>2.4706148723044699</v>
+        <v>2.35505368369525</v>
       </c>
       <c r="C50">
         <v>2.4655922004303501</v>
@@ -3155,36 +4161,48 @@
         <v>2.4590081833867599</v>
       </c>
       <c r="E50">
-        <v>2.4674010805812698</v>
-      </c>
-      <c r="I50">
+        <v>2.3414275397686399</v>
+      </c>
+      <c r="N50">
         <v>2.35505368369525</v>
       </c>
-      <c r="J50" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50">
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50">
         <v>2.3414275397686399</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>24</v>
+      </c>
+      <c r="U50" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50">
         <v>0.57859164829005005</v>
       </c>
-    </row>
-    <row r="51" spans="2:17">
+      <c r="Y50">
+        <v>2.35505368369525</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB50">
+        <v>2.3414275397686399</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28">
       <c r="B51">
-        <v>1794.4411317443801</v>
+        <v>1725.52550583539</v>
       </c>
       <c r="C51">
         <v>1519.87888993767</v>
@@ -3193,36 +4211,48 @@
         <v>1273.54037882185</v>
       </c>
       <c r="E51">
-        <v>978.238711043075</v>
-      </c>
-      <c r="I51">
+        <v>925.22375788085196</v>
+      </c>
+      <c r="N51">
         <v>1725.52550583539</v>
       </c>
-      <c r="J51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51">
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51">
         <v>925.22375788085196</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>24</v>
-      </c>
-      <c r="P51" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51">
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51" t="s">
+        <v>24</v>
+      </c>
+      <c r="V51">
         <v>46.380174923411602</v>
       </c>
-    </row>
-    <row r="52" spans="2:17">
+      <c r="Y51">
+        <v>1725.52550583539</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB51">
+        <v>925.22375788085196</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28">
       <c r="B52">
-        <v>5.5638378891337696</v>
+        <v>4.4587791520769704</v>
       </c>
       <c r="C52">
         <v>5.6238067702802397</v>
@@ -3231,36 +4261,48 @@
         <v>6.1055147953798903</v>
       </c>
       <c r="E52">
-        <v>6.6967803152293097</v>
-      </c>
-      <c r="I52">
+        <v>6.0995060232773204</v>
+      </c>
+      <c r="N52">
         <v>4.4587791520769704</v>
       </c>
-      <c r="J52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52">
+      <c r="O52" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52">
         <v>6.0995060232773204</v>
       </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52">
         <v>-36.797670735409</v>
       </c>
-    </row>
-    <row r="53" spans="2:17">
+      <c r="Y52">
+        <v>4.4587791520769704</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB52">
+        <v>6.0995060232773204</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28">
       <c r="B53">
-        <v>40.227479633915003</v>
+        <v>37.962756072977598</v>
       </c>
       <c r="C53">
         <v>34.399144729785597</v>
@@ -3269,36 +4311,48 @@
         <v>29.542568059603202</v>
       </c>
       <c r="E53">
-        <v>25.2951241925076</v>
-      </c>
-      <c r="I53">
+        <v>23.226865524020099</v>
+      </c>
+      <c r="N53">
         <v>37.962756072977598</v>
       </c>
-      <c r="J53" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53">
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53">
         <v>23.226865524020099</v>
       </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-      <c r="P53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" t="s">
+        <v>24</v>
+      </c>
+      <c r="V53">
         <v>38.816703720430603</v>
       </c>
-    </row>
-    <row r="54" spans="2:17">
+      <c r="Y53">
+        <v>37.962756072977598</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB53">
+        <v>23.226865524020099</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28">
       <c r="B54">
-        <v>6.3484558693051003</v>
+        <v>4.9670171157828999</v>
       </c>
       <c r="C54">
         <v>6.0350905586577701</v>
@@ -3307,36 +4361,48 @@
         <v>6.3935266485297699</v>
       </c>
       <c r="E54">
-        <v>6.81498709414437</v>
-      </c>
-      <c r="I54">
+        <v>5.8283636808232302</v>
+      </c>
+      <c r="N54">
         <v>4.9670171157828999</v>
       </c>
-      <c r="J54" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54">
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54">
         <v>5.8283636808232302</v>
       </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q54">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54" t="s">
+        <v>24</v>
+      </c>
+      <c r="V54">
         <v>-17.341324681635701</v>
       </c>
-    </row>
-    <row r="55" spans="2:17">
+      <c r="Y54">
+        <v>4.9670171157828999</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB54">
+        <v>5.8283636808232302</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28">
       <c r="B55">
-        <v>35.368208023467602</v>
+        <v>34.049753192000097</v>
       </c>
       <c r="C55">
         <v>29.926628505724398</v>
@@ -3345,36 +4411,48 @@
         <v>25.826104783944299</v>
       </c>
       <c r="E55">
-        <v>22.4143988649449</v>
-      </c>
-      <c r="I55">
+        <v>21.239937073601901</v>
+      </c>
+      <c r="N55">
         <v>34.049753192000097</v>
       </c>
-      <c r="J55" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55">
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55">
         <v>21.239937073601901</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>24</v>
-      </c>
-      <c r="P55" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q55">
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55" t="s">
+        <v>24</v>
+      </c>
+      <c r="V55">
         <v>37.620878031526502</v>
       </c>
-    </row>
-    <row r="56" spans="2:17">
+      <c r="Y55">
+        <v>34.049753192000097</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB55">
+        <v>21.239937073601901</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28">
       <c r="B56">
-        <v>5.3985127273913598</v>
+        <v>4.7912137729325899</v>
       </c>
       <c r="C56">
         <v>5.7979986540545099</v>
@@ -3383,36 +4461,48 @@
         <v>6.0668147312522596</v>
       </c>
       <c r="E56">
-        <v>6.5642534258666396</v>
-      </c>
-      <c r="I56">
+        <v>5.1015975077987203</v>
+      </c>
+      <c r="N56">
         <v>4.7912137729325899</v>
       </c>
-      <c r="J56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56">
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56">
         <v>5.1015975077987203</v>
       </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>24</v>
-      </c>
-      <c r="P56" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56">
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56" t="s">
+        <v>24</v>
+      </c>
+      <c r="V56">
         <v>-6.4781858955992098</v>
       </c>
-    </row>
-    <row r="57" spans="2:17">
+      <c r="Y56">
+        <v>4.7912137729325899</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB56">
+        <v>5.1015975077987203</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28">
       <c r="B57">
-        <v>35.727752166026903</v>
+        <v>34.370906827445999</v>
       </c>
       <c r="C57">
         <v>30.2021381697907</v>
@@ -3421,36 +4511,48 @@
         <v>26.047830705212</v>
       </c>
       <c r="E57">
-        <v>22.824899985721299</v>
-      </c>
-      <c r="I57">
+        <v>21.585668713167902</v>
+      </c>
+      <c r="N57">
         <v>34.370906827445999</v>
       </c>
-      <c r="J57" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57">
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57">
         <v>21.585668713167902</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>24</v>
-      </c>
-      <c r="P57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" t="s">
+        <v>24</v>
+      </c>
+      <c r="V57">
         <v>37.197849269629302</v>
       </c>
-    </row>
-    <row r="58" spans="2:17">
+      <c r="Y57">
+        <v>34.370906827445999</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB57">
+        <v>21.585668713167902</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
       <c r="B58">
-        <v>6.0306441130110802</v>
+        <v>5.3695453757378599</v>
       </c>
       <c r="C58">
         <v>6.0851962513843203</v>
@@ -3459,36 +4561,48 @@
         <v>5.5429889813021296</v>
       </c>
       <c r="E58">
-        <v>6.5652373750340898</v>
-      </c>
-      <c r="I58">
+        <v>6.1166567481074203</v>
+      </c>
+      <c r="N58">
         <v>5.3695453757378599</v>
       </c>
-      <c r="J58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58">
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58">
         <v>6.1166567481074203</v>
       </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>24</v>
-      </c>
-      <c r="P58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q58">
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" t="s">
+        <v>24</v>
+      </c>
+      <c r="V58">
         <v>-13.913866446596399</v>
       </c>
-    </row>
-    <row r="59" spans="2:17">
+      <c r="Y58">
+        <v>5.3695453757378599</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB58">
+        <v>6.1166567481074203</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
       <c r="B59">
-        <v>35.349015144250799</v>
+        <v>34.134708713136199</v>
       </c>
       <c r="C59">
         <v>29.911411909206301</v>
@@ -3497,36 +4611,48 @@
         <v>25.802736302294299</v>
       </c>
       <c r="E59">
-        <v>22.3796903638356</v>
-      </c>
-      <c r="I59">
+        <v>21.2624500881508</v>
+      </c>
+      <c r="N59">
         <v>34.134708713136199</v>
       </c>
-      <c r="J59" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59">
+      <c r="O59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59">
         <v>21.2624500881508</v>
       </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>24</v>
-      </c>
-      <c r="P59" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59">
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>24</v>
+      </c>
+      <c r="U59" t="s">
+        <v>24</v>
+      </c>
+      <c r="V59">
         <v>37.710175684117402</v>
       </c>
-    </row>
-    <row r="60" spans="2:17">
+      <c r="Y59">
+        <v>34.134708713136199</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB59">
+        <v>21.2624500881508</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
       <c r="B60">
-        <v>5.75134787318206</v>
+        <v>5.0634041700120704</v>
       </c>
       <c r="C60">
         <v>5.27121411319267</v>
@@ -3535,36 +4661,48 @@
         <v>5.4854495835031303</v>
       </c>
       <c r="E60">
-        <v>6.6492313314214204</v>
-      </c>
-      <c r="I60">
+        <v>5.1412439460531498</v>
+      </c>
+      <c r="N60">
         <v>5.0634041700120704</v>
       </c>
-      <c r="J60" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60">
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60">
         <v>5.1412439460531498</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q60">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60" t="s">
+        <v>24</v>
+      </c>
+      <c r="V60">
         <v>-1.53730125874771</v>
       </c>
-    </row>
-    <row r="61" spans="2:17">
+      <c r="Y60">
+        <v>5.0634041700120704</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB60">
+        <v>5.1412439460531498</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
       <c r="B61">
-        <v>35.747679835966203</v>
+        <v>34.434179217889998</v>
       </c>
       <c r="C61">
         <v>30.2863704785956</v>
@@ -3573,36 +4711,48 @@
         <v>26.173353239085699</v>
       </c>
       <c r="E61">
-        <v>22.733917484848199</v>
-      </c>
-      <c r="I61">
+        <v>21.611531887217801</v>
+      </c>
+      <c r="N61">
         <v>34.434179217889998</v>
       </c>
-      <c r="J61" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61">
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61">
         <v>21.611531887217801</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>24</v>
+      </c>
+      <c r="U61" t="s">
+        <v>24</v>
+      </c>
+      <c r="V61">
         <v>37.238138448237699</v>
       </c>
-    </row>
-    <row r="62" spans="2:17">
+      <c r="Y61">
+        <v>34.434179217889998</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB61">
+        <v>21.611531887217801</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
       <c r="B62">
-        <v>5.7663513522972103</v>
+        <v>4.9767295265503098</v>
       </c>
       <c r="C62">
         <v>5.6770413942535596</v>
@@ -3611,36 +4761,48 @@
         <v>6.0988704569926702</v>
       </c>
       <c r="E62">
-        <v>6.29690825290775</v>
-      </c>
-      <c r="I62">
+        <v>5.5413275529382204</v>
+      </c>
+      <c r="N62">
         <v>4.9767295265503098</v>
       </c>
-      <c r="J62" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62">
+      <c r="O62" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62">
         <v>5.5413275529382204</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q62">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" t="s">
+        <v>24</v>
+      </c>
+      <c r="V62">
         <v>-11.344760115570701</v>
       </c>
-    </row>
-    <row r="63" spans="2:17">
+      <c r="Y62">
+        <v>4.9767295265503098</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB62">
+        <v>5.5413275529382204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
       <c r="B63">
-        <v>35.488825183120902</v>
+        <v>34.111739005699498</v>
       </c>
       <c r="C63">
         <v>29.8969881089164</v>
@@ -3649,36 +4811,48 @@
         <v>25.787985801339399</v>
       </c>
       <c r="E63">
-        <v>22.514065866750499</v>
-      </c>
-      <c r="I63">
+        <v>21.4687277083253</v>
+      </c>
+      <c r="N63">
         <v>34.111739005699498</v>
       </c>
-      <c r="J63" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63">
+      <c r="O63" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63">
         <v>21.4687277083253</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63">
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>24</v>
+      </c>
+      <c r="U63" t="s">
+        <v>24</v>
+      </c>
+      <c r="V63">
         <v>37.063520259878104</v>
       </c>
-    </row>
-    <row r="64" spans="2:17">
+      <c r="Y63">
+        <v>34.111739005699498</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB63">
+        <v>21.4687277083253</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
       <c r="B64">
-        <v>5.4661075658038101</v>
+        <v>5.3965559010661801</v>
       </c>
       <c r="C64">
         <v>5.6109710804601702</v>
@@ -3687,36 +4861,48 @@
         <v>5.5842284340766497</v>
       </c>
       <c r="E64">
-        <v>5.7438175343530702</v>
-      </c>
-      <c r="I64">
+        <v>5.7402493169096998</v>
+      </c>
+      <c r="N64">
         <v>5.3965559010661801</v>
       </c>
-      <c r="J64" t="s">
-        <v>24</v>
-      </c>
-      <c r="K64" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64">
+      <c r="O64" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64">
         <v>5.7402493169096998</v>
       </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>24</v>
-      </c>
-      <c r="P64" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q64">
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>24</v>
+      </c>
+      <c r="U64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V64">
         <v>-6.3687548529909499</v>
       </c>
-    </row>
-    <row r="65" spans="2:17">
+      <c r="Y64">
+        <v>5.3965559010661801</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB64">
+        <v>5.7402493169096998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
       <c r="B65">
-        <v>35.862522777025298</v>
+        <v>34.082421829964403</v>
       </c>
       <c r="C65">
         <v>30.427226824626398</v>
@@ -3725,36 +4911,48 @@
         <v>26.2831597626373</v>
       </c>
       <c r="E65">
-        <v>22.827678048648</v>
-      </c>
-      <c r="I65">
+        <v>21.1604425411285</v>
+      </c>
+      <c r="N65">
         <v>34.082421829964403</v>
       </c>
-      <c r="J65" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65">
+      <c r="O65" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q65">
         <v>21.1604425411285</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q65">
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+      <c r="U65" t="s">
+        <v>24</v>
+      </c>
+      <c r="V65">
         <v>37.913911614917097</v>
       </c>
-    </row>
-    <row r="66" spans="2:17">
+      <c r="Y65">
+        <v>34.082421829964403</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB65">
+        <v>21.1604425411285</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
       <c r="B66">
-        <v>5.1781021221354102</v>
+        <v>4.5587967267716998</v>
       </c>
       <c r="C66">
         <v>5.5308920107473396</v>
@@ -3763,36 +4961,48 @@
         <v>5.5629124842017701</v>
       </c>
       <c r="E66">
-        <v>5.8227145998409204</v>
-      </c>
-      <c r="I66">
+        <v>5.5855800660604098</v>
+      </c>
+      <c r="N66">
         <v>4.5587967267716998</v>
       </c>
-      <c r="J66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66">
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66">
         <v>5.5855800660604098</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>24</v>
-      </c>
-      <c r="P66" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q66">
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66" t="s">
+        <v>24</v>
+      </c>
+      <c r="V66">
         <v>-22.523121797883601</v>
       </c>
-    </row>
-    <row r="67" spans="2:17">
+      <c r="Y66">
+        <v>4.5587967267716998</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB66">
+        <v>5.5855800660604098</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
       <c r="B67">
-        <v>35.464156944071298</v>
+        <v>34.391163043667198</v>
       </c>
       <c r="C67">
         <v>29.945177635903899</v>
@@ -3801,36 +5011,48 @@
         <v>25.893988559244701</v>
       </c>
       <c r="E67">
-        <v>22.578114752471802</v>
-      </c>
-      <c r="I67">
+        <v>21.539817091883801</v>
+      </c>
+      <c r="N67">
         <v>34.391163043667198</v>
       </c>
-      <c r="J67" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67">
+      <c r="O67" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67">
         <v>21.539817091883801</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>24</v>
-      </c>
-      <c r="P67" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q67">
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>24</v>
+      </c>
+      <c r="U67" t="s">
+        <v>24</v>
+      </c>
+      <c r="V67">
         <v>37.368163255967097</v>
       </c>
-    </row>
-    <row r="68" spans="2:17">
+      <c r="Y67">
+        <v>34.391163043667198</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB67">
+        <v>21.539817091883801</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
       <c r="B68">
-        <v>5.7422702157383299</v>
+        <v>5.3511440168629596</v>
       </c>
       <c r="C68">
         <v>5.3523199093787497</v>
@@ -3839,36 +5061,48 @@
         <v>5.6785354938510997</v>
       </c>
       <c r="E68">
-        <v>5.7639650079024003</v>
-      </c>
-      <c r="I68">
+        <v>5.9226377276731599</v>
+      </c>
+      <c r="N68">
         <v>5.3511440168629596</v>
       </c>
-      <c r="J68" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68">
+      <c r="O68" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68">
         <v>5.9226377276731599</v>
       </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>24</v>
-      </c>
-      <c r="P68" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q68">
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68" t="s">
+        <v>24</v>
+      </c>
+      <c r="V68">
         <v>-10.6798417125245</v>
       </c>
-    </row>
-    <row r="69" spans="2:17">
+      <c r="Y68">
+        <v>5.3511440168629596</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB68">
+        <v>5.9226377276731599</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
       <c r="B69">
-        <v>35.914913601561302</v>
+        <v>34.109269751884099</v>
       </c>
       <c r="C69">
         <v>30.468569494101601</v>
@@ -3877,36 +5111,48 @@
         <v>26.1965505430082</v>
       </c>
       <c r="E69">
-        <v>22.788847596193801</v>
-      </c>
-      <c r="I69">
+        <v>21.253167358831998</v>
+      </c>
+      <c r="N69">
         <v>34.109269751884099</v>
       </c>
-      <c r="J69" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69">
+      <c r="O69" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69">
         <v>21.253167358831998</v>
       </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>24</v>
-      </c>
-      <c r="P69" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69">
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>24</v>
+      </c>
+      <c r="U69" t="s">
+        <v>24</v>
+      </c>
+      <c r="V69">
         <v>37.6909341260289</v>
       </c>
-    </row>
-    <row r="70" spans="2:17">
+      <c r="Y69">
+        <v>34.109269751884099</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB69">
+        <v>21.253167358831998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28">
       <c r="B70">
-        <v>5.5923028456199599</v>
+        <v>5.0687285234600203</v>
       </c>
       <c r="C70">
         <v>5.5623924701408596</v>
@@ -3915,36 +5161,48 @@
         <v>6.5530546369542604</v>
       </c>
       <c r="E70">
-        <v>6.8432280688244198</v>
-      </c>
-      <c r="I70">
+        <v>5.0637757610942504</v>
+      </c>
+      <c r="N70">
         <v>5.0687285234600203</v>
       </c>
-      <c r="J70" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70">
+      <c r="O70" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70">
         <v>5.0637757610942504</v>
       </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>24</v>
-      </c>
-      <c r="P70" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q70">
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>24</v>
+      </c>
+      <c r="U70" t="s">
+        <v>24</v>
+      </c>
+      <c r="V70">
         <v>9.7712125296212093E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:17">
+      <c r="Y70">
+        <v>5.0687285234600203</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB70">
+        <v>5.0637757610942504</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
       <c r="B71">
-        <v>35.500245858191199</v>
+        <v>34.395150487087299</v>
       </c>
       <c r="C71">
         <v>29.945422206425199</v>
@@ -3953,36 +5211,48 @@
         <v>25.796279869929201</v>
       </c>
       <c r="E71">
-        <v>22.492718489112701</v>
-      </c>
-      <c r="I71">
+        <v>21.793308863603698</v>
+      </c>
+      <c r="N71">
         <v>34.395150487087299</v>
       </c>
-      <c r="J71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71">
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71">
         <v>21.793308863603698</v>
       </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" t="s">
-        <v>24</v>
-      </c>
-      <c r="P71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q71">
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V71">
         <v>36.638425606582402</v>
       </c>
-    </row>
-    <row r="72" spans="2:17">
+      <c r="Y71">
+        <v>34.395150487087299</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB71">
+        <v>21.793308863603698</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28">
       <c r="B72">
-        <v>5.4644389703628802</v>
+        <v>4.99333161938742</v>
       </c>
       <c r="C72">
         <v>5.0512107167480096</v>
@@ -3991,36 +5261,48 @@
         <v>5.8015936253513898</v>
       </c>
       <c r="E72">
-        <v>5.9142964000375899</v>
-      </c>
-      <c r="I72">
+        <v>5.1244907385096701</v>
+      </c>
+      <c r="N72">
         <v>4.99333161938742</v>
       </c>
-      <c r="J72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72">
+      <c r="O72" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72">
         <v>5.1244907385096701</v>
       </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>24</v>
-      </c>
-      <c r="P72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q72">
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>24</v>
+      </c>
+      <c r="U72" t="s">
+        <v>24</v>
+      </c>
+      <c r="V72">
         <v>-2.6266855302180798</v>
       </c>
-    </row>
-    <row r="73" spans="2:17">
+      <c r="Y72">
+        <v>4.99333161938742</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB72">
+        <v>5.1244907385096701</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28">
       <c r="B73">
-        <v>35.904369498447799</v>
+        <v>34.104484969396999</v>
       </c>
       <c r="C73">
         <v>30.371694713503999</v>
@@ -4029,36 +5311,48 @@
         <v>26.252387429950801</v>
       </c>
       <c r="E73">
-        <v>22.8666331296103</v>
-      </c>
-      <c r="I73">
+        <v>21.591701455174299</v>
+      </c>
+      <c r="N73">
         <v>34.104484969396999</v>
       </c>
-      <c r="J73" t="s">
-        <v>24</v>
-      </c>
-      <c r="K73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73">
+      <c r="O73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q73">
         <v>21.591701455174299</v>
       </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>24</v>
-      </c>
-      <c r="P73" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q73">
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>24</v>
+      </c>
+      <c r="U73" t="s">
+        <v>24</v>
+      </c>
+      <c r="V73">
         <v>36.689554249099103</v>
       </c>
-    </row>
-    <row r="74" spans="2:17">
+      <c r="Y73">
+        <v>34.104484969396999</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB73">
+        <v>21.591701455174299</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28">
       <c r="B74">
-        <v>5.1843202621932498</v>
+        <v>5.3746587050600603</v>
       </c>
       <c r="C74">
         <v>5.7252239897669801</v>
@@ -4067,36 +5361,48 @@
         <v>6.4270871039475104</v>
       </c>
       <c r="E74">
-        <v>6.8814182778661603</v>
-      </c>
-      <c r="I74">
+        <v>5.9124715257357696</v>
+      </c>
+      <c r="N74">
         <v>5.3746587050600603</v>
       </c>
-      <c r="J74" t="s">
-        <v>24</v>
-      </c>
-      <c r="K74" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74">
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74">
         <v>5.9124715257357696</v>
       </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>24</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74">
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>24</v>
+      </c>
+      <c r="U74" t="s">
+        <v>24</v>
+      </c>
+      <c r="V74">
         <v>-10.006455296768401</v>
       </c>
-    </row>
-    <row r="75" spans="2:17">
+      <c r="Y74">
+        <v>5.3746587050600603</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB74">
+        <v>5.9124715257357696</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28">
       <c r="B75">
-        <v>35.468367013192101</v>
+        <v>34.0723778508764</v>
       </c>
       <c r="C75">
         <v>29.974713274641701</v>
@@ -4105,36 +5411,48 @@
         <v>25.814328831939001</v>
       </c>
       <c r="E75">
-        <v>22.537598302411499</v>
-      </c>
-      <c r="I75">
+        <v>21.1191987117429</v>
+      </c>
+      <c r="N75">
         <v>34.0723778508764</v>
       </c>
-      <c r="J75" t="s">
-        <v>24</v>
-      </c>
-      <c r="K75" t="s">
-        <v>24</v>
-      </c>
-      <c r="L75">
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75">
         <v>21.1191987117429</v>
       </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q75">
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>24</v>
+      </c>
+      <c r="U75" t="s">
+        <v>24</v>
+      </c>
+      <c r="V75">
         <v>38.016657351668599</v>
       </c>
-    </row>
-    <row r="76" spans="2:17">
+      <c r="Y75">
+        <v>34.0723778508764</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB75">
+        <v>21.1191987117429</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28">
       <c r="B76">
-        <v>5.7227458144297598</v>
+        <v>4.5779692467634403</v>
       </c>
       <c r="C76">
         <v>5.3657742925354901</v>
@@ -4143,36 +5461,48 @@
         <v>5.5198917211647496</v>
       </c>
       <c r="E76">
-        <v>5.1716049830608197</v>
-      </c>
-      <c r="I76">
+        <v>5.3396344613905802</v>
+      </c>
+      <c r="N76">
         <v>4.5779692467634403</v>
       </c>
-      <c r="J76" t="s">
-        <v>24</v>
-      </c>
-      <c r="K76" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76">
+      <c r="O76" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76">
         <v>5.3396344613905802</v>
       </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>24</v>
-      </c>
-      <c r="P76" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q76">
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>24</v>
+      </c>
+      <c r="U76" t="s">
+        <v>24</v>
+      </c>
+      <c r="V76">
         <v>-16.637621914250001</v>
       </c>
-    </row>
-    <row r="77" spans="2:17">
+      <c r="Y76">
+        <v>4.5779692467634403</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB76">
+        <v>5.3396344613905802</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28">
       <c r="B77">
-        <v>35.908281288395898</v>
+        <v>34.3860547896792</v>
       </c>
       <c r="C77">
         <v>30.422352658250901</v>
@@ -4181,36 +5511,48 @@
         <v>26.297267638262198</v>
       </c>
       <c r="E77">
-        <v>22.930253865235901</v>
-      </c>
-      <c r="I77">
+        <v>21.469709633947399</v>
+      </c>
+      <c r="N77">
         <v>34.3860547896792</v>
       </c>
-      <c r="J77" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77">
+      <c r="O77" t="s">
+        <v>24</v>
+      </c>
+      <c r="P77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q77">
         <v>21.469709633947399</v>
       </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>24</v>
-      </c>
-      <c r="P77" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q77">
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>24</v>
+      </c>
+      <c r="U77" t="s">
+        <v>24</v>
+      </c>
+      <c r="V77">
         <v>37.562742323113397</v>
       </c>
-    </row>
-    <row r="78" spans="2:17">
+      <c r="Y77">
+        <v>34.3860547896792</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB77">
+        <v>21.469709633947399</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28">
       <c r="B78">
-        <v>5.6253586253864603</v>
+        <v>5.3652949169485096</v>
       </c>
       <c r="C78">
         <v>5.5676625566121496</v>
@@ -4219,36 +5561,48 @@
         <v>5.95896886589576</v>
       </c>
       <c r="E78">
-        <v>6.2992339002832498</v>
-      </c>
-      <c r="I78">
+        <v>6.1188451332135196</v>
+      </c>
+      <c r="N78">
         <v>5.3652949169485096</v>
       </c>
-      <c r="J78" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78">
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78">
         <v>6.1188451332135196</v>
       </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78" t="s">
-        <v>24</v>
-      </c>
-      <c r="P78" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q78">
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>24</v>
+      </c>
+      <c r="U78" t="s">
+        <v>24</v>
+      </c>
+      <c r="V78">
         <v>-14.044898331396499</v>
       </c>
-    </row>
-    <row r="79" spans="2:17">
+      <c r="Y78">
+        <v>5.3652949169485096</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB78">
+        <v>6.1188451332135196</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28">
       <c r="B79">
-        <v>35.496439767826203</v>
+        <v>34.095244916648902</v>
       </c>
       <c r="C79">
         <v>29.967565659579801</v>
@@ -4257,36 +5611,48 @@
         <v>26.1879625805513</v>
       </c>
       <c r="E79">
-        <v>22.836313930590599</v>
-      </c>
-      <c r="I79">
+        <v>21.220046742185701</v>
+      </c>
+      <c r="N79">
         <v>34.095244916648902</v>
       </c>
-      <c r="J79" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79">
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q79">
         <v>21.220046742185701</v>
       </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>24</v>
-      </c>
-      <c r="P79" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q79">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>24</v>
+      </c>
+      <c r="U79" t="s">
+        <v>24</v>
+      </c>
+      <c r="V79">
         <v>37.762445191224103</v>
       </c>
-    </row>
-    <row r="80" spans="2:17">
+      <c r="Y79">
+        <v>34.095244916648902</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB79">
+        <v>21.220046742185701</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28">
       <c r="B80">
-        <v>5.4772093098218804</v>
+        <v>5.0683028041106803</v>
       </c>
       <c r="C80">
         <v>5.0695040100998501</v>
@@ -4295,36 +5661,48 @@
         <v>4.9569425581940703</v>
       </c>
       <c r="E80">
-        <v>5.3864788933752399</v>
-      </c>
-      <c r="I80">
+        <v>5.37134792653071</v>
+      </c>
+      <c r="N80">
         <v>5.0683028041106803</v>
       </c>
-      <c r="J80" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80">
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q80">
         <v>5.37134792653071</v>
       </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q80">
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>24</v>
+      </c>
+      <c r="U80" t="s">
+        <v>24</v>
+      </c>
+      <c r="V80">
         <v>-5.9792229101670999</v>
       </c>
-    </row>
-    <row r="81" spans="2:17">
+      <c r="Y80">
+        <v>5.0683028041106803</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB80">
+        <v>5.37134792653071</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28">
       <c r="B81">
-        <v>35.926162253986099</v>
+        <v>34.3796704944982</v>
       </c>
       <c r="C81">
         <v>30.417611829250099</v>
@@ -4333,36 +5711,48 @@
         <v>26.357683695110701</v>
       </c>
       <c r="E81">
-        <v>22.8904626493857</v>
-      </c>
-      <c r="I81">
+        <v>21.855215386956001</v>
+      </c>
+      <c r="N81">
         <v>34.3796704944982</v>
       </c>
-      <c r="J81" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81">
+      <c r="O81" t="s">
+        <v>24</v>
+      </c>
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81">
         <v>21.855215386956001</v>
       </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q81">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>24</v>
+      </c>
+      <c r="U81" t="s">
+        <v>24</v>
+      </c>
+      <c r="V81">
         <v>36.429828812776201</v>
       </c>
-    </row>
-    <row r="82" spans="2:17">
+      <c r="Y81">
+        <v>34.3796704944982</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB81">
+        <v>21.855215386956001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28">
       <c r="B82">
-        <v>5.16464759334304</v>
+        <v>4.9669769612791601</v>
       </c>
       <c r="C82">
         <v>5.6940882893823597</v>
@@ -4371,36 +5761,48 @@
         <v>5.7377515250578099</v>
       </c>
       <c r="E82">
-        <v>5.7425907495556698</v>
-      </c>
-      <c r="I82">
+        <v>5.1946242330385104</v>
+      </c>
+      <c r="N82">
         <v>4.9669769612791601</v>
       </c>
-      <c r="J82" t="s">
-        <v>24</v>
-      </c>
-      <c r="K82" t="s">
-        <v>24</v>
-      </c>
-      <c r="L82">
+      <c r="O82" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82">
         <v>5.1946242330385104</v>
       </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>24</v>
-      </c>
-      <c r="P82" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q82">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82">
         <v>-4.5832157776049902</v>
       </c>
-    </row>
-    <row r="83" spans="2:17">
+      <c r="Y82">
+        <v>4.9669769612791601</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB82">
+        <v>5.1946242330385104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28">
       <c r="B83">
-        <v>35.486034318441398</v>
+        <v>34.100470324510901</v>
       </c>
       <c r="C83">
         <v>29.977398691033699</v>
@@ -4409,36 +5811,48 @@
         <v>26.1808441293554</v>
       </c>
       <c r="E83">
-        <v>22.837918638843998</v>
-      </c>
-      <c r="I83">
+        <v>21.5212414087238</v>
+      </c>
+      <c r="N83">
         <v>34.100470324510901</v>
       </c>
-      <c r="J83" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83">
+      <c r="O83" t="s">
+        <v>24</v>
+      </c>
+      <c r="P83" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83">
         <v>21.5212414087238</v>
       </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q83">
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>24</v>
+      </c>
+      <c r="U83" t="s">
+        <v>24</v>
+      </c>
+      <c r="V83">
         <v>36.888725569117199</v>
       </c>
-    </row>
-    <row r="84" spans="2:17">
+      <c r="Y83">
+        <v>34.100470324510901</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB83">
+        <v>21.5212414087238</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28">
       <c r="B84">
-        <v>83.778830391752507</v>
+        <v>57.519573127231503</v>
       </c>
       <c r="C84">
         <v>114.33058173970301</v>
@@ -4447,36 +5861,48 @@
         <v>52.625193124520003</v>
       </c>
       <c r="E84">
-        <v>52.767153135742099</v>
-      </c>
-      <c r="I84">
+        <v>72.452974923056203</v>
+      </c>
+      <c r="N84">
         <v>57.519573127231503</v>
       </c>
-      <c r="J84" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84">
+      <c r="O84" t="s">
+        <v>24</v>
+      </c>
+      <c r="P84" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84">
         <v>72.452974923056203</v>
       </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>24</v>
-      </c>
-      <c r="P84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q84">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>24</v>
+      </c>
+      <c r="U84" t="s">
+        <v>24</v>
+      </c>
+      <c r="V84">
         <v>-25.962295934972499</v>
       </c>
-    </row>
-    <row r="85" spans="2:17">
+      <c r="Y84">
+        <v>57.519573127231503</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB84">
+        <v>72.452974923056203</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28">
       <c r="B85">
-        <v>38.923393358619499</v>
+        <v>34.818872564499102</v>
       </c>
       <c r="C85">
         <v>38.275994853619103</v>
@@ -4485,36 +5911,48 @@
         <v>38.204942564398799</v>
       </c>
       <c r="E85">
-        <v>38.204568043735499</v>
-      </c>
-      <c r="I85">
+        <v>34.580824348469399</v>
+      </c>
+      <c r="N85">
         <v>34.818872564499102</v>
       </c>
-      <c r="J85" t="s">
-        <v>24</v>
-      </c>
-      <c r="K85" t="s">
-        <v>24</v>
-      </c>
-      <c r="L85">
+      <c r="O85" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85">
         <v>34.580824348469399</v>
       </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>24</v>
-      </c>
-      <c r="P85" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>24</v>
+      </c>
+      <c r="U85" t="s">
+        <v>24</v>
+      </c>
+      <c r="V85">
         <v>0.68367583007964405</v>
       </c>
-    </row>
-    <row r="86" spans="2:17">
+      <c r="Y85">
+        <v>34.818872564499102</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB85">
+        <v>34.580824348469399</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
       <c r="B86">
-        <v>2666.17658709849</v>
+        <v>2551.8589172348802</v>
       </c>
       <c r="C86">
         <v>2331.0424769845299</v>
@@ -4523,35 +5961,48 @@
         <v>1992.2901802268</v>
       </c>
       <c r="E86">
-        <v>1614.57248498794</v>
-      </c>
-      <c r="I86">
+        <v>1564.8487664679899</v>
+      </c>
+      <c r="N86">
         <v>2551.8589172348802</v>
       </c>
-      <c r="J86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K86" t="s">
-        <v>24</v>
-      </c>
-      <c r="L86">
+      <c r="O86" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q86">
         <v>1564.8487664679899</v>
       </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>24</v>
-      </c>
-      <c r="P86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>24</v>
+      </c>
+      <c r="U86" t="s">
+        <v>24</v>
+      </c>
+      <c r="V86">
         <v>38.678084595538202</v>
+      </c>
+      <c r="Y86">
+        <v>2551.8589172348802</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB86">
+        <v>1564.8487664679899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4559,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="F14:I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4649,7 +6100,7 @@
         <v>18.916046009165498</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I8" si="2">100*((H5/G5)-1)</f>
+        <f t="shared" ref="I5:I7" si="2">100*((H5/G5)-1)</f>
         <v>-5.526691388543048</v>
       </c>
     </row>
@@ -4946,6 +6397,21 @@
         <v>46.112152737500303</v>
       </c>
       <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G16:G18)</f>
+        <v>14138.304365442978</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H16:H18)</f>
+        <v>10245.068869997564</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" ref="I20" si="6">((H20/G20)-1)</f>
+        <v>-0.27536792212235228</v>
+      </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21">
@@ -4958,6 +6424,10 @@
         <v>10430.133936607899</v>
       </c>
       <c r="E21" s="6"/>
+      <c r="G21" s="4">
+        <f>G20-H20</f>
+        <v>3893.2354954454149</v>
+      </c>
     </row>
     <row r="22" spans="2:9">
       <c r="E22" s="6"/>
@@ -5033,10 +6503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5048,13 +6518,13 @@
     <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5063,13 +6533,13 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="E3" s="6"/>
       <c r="I3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>90.743977909370102</v>
       </c>
@@ -5096,7 +6566,7 @@
         <v>-16.124775986161065</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>25.9951021218695</v>
       </c>
@@ -5123,7 +6593,7 @@
         <v>-2.3456542478493159</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>13007.9604444051</v>
       </c>
@@ -5150,7 +6620,7 @@
         <v>-37.094914335255261</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="B7">
         <v>2.7619763446400101</v>
       </c>
@@ -5177,7 +6647,7 @@
         <v>132.71868583543355</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>7.6454601397589999</v>
       </c>
@@ -5204,7 +6674,7 @@
         <v>-36.746721617273479</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>13135.106960920701</v>
       </c>
@@ -5216,13 +6686,13 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5231,7 +6701,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
         <v>32</v>
@@ -5246,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>124.089837064118</v>
       </c>
@@ -5273,7 +6743,7 @@
         <v>-0.17467910267997966</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="B15">
         <v>34.5163581887766</v>
       </c>
@@ -5300,7 +6770,7 @@
         <v>-2.767951381938305E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>16608.429094285199</v>
       </c>
@@ -5325,6 +6795,10 @@
       <c r="I16" s="12">
         <f t="shared" si="5"/>
         <v>-0.24382769010107197</v>
+      </c>
+      <c r="J16" s="4">
+        <f>G16-H16</f>
+        <v>4049.5949022669993</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -5476,7 +6950,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5955,7 +7429,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6263,7 +7737,7 @@
         <v>91.447699649502695</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" ref="I18:I21" si="1">((H18/G18)-1)</f>
+        <f t="shared" ref="I18:I22" si="1">((H18/G18)-1)</f>
         <v>1.9036125210674326E-2</v>
       </c>
     </row>
@@ -6359,6 +7833,21 @@
         <v>0.72638774745941903</v>
       </c>
       <c r="E22" s="6"/>
+      <c r="F22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G18:G20)</f>
+        <v>266.18308198113635</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H18:H20)</f>
+        <v>246.36419239966091</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.4455857351895749E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23">
@@ -6451,8 +7940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="A12:D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6743,15 +8232,15 @@
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>10.2773689376482</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>6.2822829115338701</v>
       </c>
       <c r="D13" s="12">
-        <f>C13/B13</f>
-        <v>0.61127346402059424</v>
+        <f t="shared" ref="D13:D17" si="1">((C13/B13)-1)</f>
+        <v>-0.38872653597940576</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -6770,30 +8259,30 @@
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>1.6786557270081099</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>1.0474309294178099</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D13:D16" si="1">C14/B14</f>
-        <v>0.6239700687672628</v>
+        <f t="shared" si="1"/>
+        <v>-0.3760299312327372</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>399.07159617236698</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>245.89278461090899</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>0.61616207961015346</v>
+        <v>-0.38383792038984654</v>
       </c>
       <c r="I15">
         <v>9.8461892259614903</v>
@@ -6818,15 +8307,15 @@
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>4.3045918833761094</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>4.4171913154808875</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
-        <v>1.0261579808621639</v>
+        <v>2.6157980862163921E-2</v>
       </c>
       <c r="I16">
         <v>1.61700734253365</v>
@@ -6851,17 +8340,17 @@
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
         <f>SUM(B13:B16)</f>
         <v>415.33221272039941</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <f>SUM(C13:C16)</f>
         <v>257.63968976734157</v>
       </c>
-      <c r="D17" s="13">
-        <f>C17/B17</f>
-        <v>0.62032195403245538</v>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.37967804596754462</v>
       </c>
       <c r="E17" s="2"/>
       <c r="I17">
